--- a/Carrie/客户属性.xlsx
+++ b/Carrie/客户属性.xlsx
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="1876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="1887">
   <si>
     <t>客户公司名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -6674,9 +6674,6 @@
     <t>西安聚盟科技发展有限公司</t>
   </si>
   <si>
-    <t>西安聚盟科技发展有限公司工会</t>
-  </si>
-  <si>
     <t>西藏康馨药业有限公司</t>
   </si>
   <si>
@@ -6860,53 +6857,90 @@
     <t>居民服务业</t>
   </si>
   <si>
-    <t>工商注册</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>新闻和出版业</t>
   </si>
   <si>
+    <t>社会工作</t>
+  </si>
+  <si>
+    <t>装卸搬运和仓储业</t>
+  </si>
+  <si>
+    <t>橡胶和塑料制品业</t>
+  </si>
+  <si>
+    <t>仪器仪表制造业</t>
+  </si>
+  <si>
+    <t>研究和试验发展</t>
+  </si>
+  <si>
+    <t>电气机械和器材制造业</t>
+  </si>
+  <si>
+    <t>计算机、通信和其他电子设备制造业</t>
+  </si>
+  <si>
+    <t>机动车、电子产品和日用产品修理业</t>
+  </si>
+  <si>
+    <t>装食品、避孕套的批发兼零售、进出口；</t>
+  </si>
+  <si>
+    <t>广播、电视、电影和录音制作业</t>
+  </si>
+  <si>
+    <t>化学原料和化学制品制造业</t>
+  </si>
+  <si>
+    <t>术咨询、技术服务、技术转让，计算机信</t>
+  </si>
+  <si>
+    <t>营中试型风力发电场；制造及销售风力发</t>
+  </si>
+  <si>
+    <t>其他金融业</t>
+  </si>
+  <si>
+    <t>医药制造业</t>
+  </si>
+  <si>
+    <t>互联网和相关服务</t>
+  </si>
+  <si>
     <t>赢虎（上海）众创空间管理有限公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会工作</t>
-  </si>
-  <si>
-    <t>装卸搬运和仓储业</t>
-  </si>
-  <si>
-    <t>橡胶和塑料制品业</t>
-  </si>
-  <si>
-    <t>仪器仪表制造业</t>
-  </si>
-  <si>
-    <t>研究和试验发展</t>
-  </si>
-  <si>
-    <t>电气机械和器材制造业</t>
-  </si>
-  <si>
-    <t>计算机、通信和其他电子设备制造业</t>
-  </si>
-  <si>
-    <t>机动车、电子产品和日用产品修理业</t>
-  </si>
-  <si>
-    <t>装食品、避孕套的批发兼零售、进出口；</t>
-  </si>
-  <si>
-    <t>广播、电视、电影和录音制作业</t>
-  </si>
-  <si>
-    <t>化学原料和化学制品制造业</t>
-  </si>
-  <si>
-    <t>术咨询、技术服务、技术转让，计算机信</t>
+  </si>
+  <si>
+    <t>智睿企业咨询（深圳）有限公司上海分公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信、广播电视和卫星传输服务</t>
+  </si>
+  <si>
+    <t>纺织服装、服饰业</t>
+  </si>
+  <si>
+    <t>餐饮业</t>
+  </si>
+  <si>
+    <t>电力、热力生产和供应业</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>房地产业</t>
+  </si>
+  <si>
+    <t>其他服务业</t>
   </si>
 </sst>
 </file>
@@ -7028,17 +7062,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color rgb="FF44AA33"/>
+      <name val="Inherit"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="PingFangSC-Regular"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -7062,7 +7094,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -7089,34 +7121,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE5EBF5"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE5EBF5"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE5EBF5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE5EBF5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -7124,17 +7128,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -7148,6 +7141,30 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE5ECF5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE5ECF5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE5ECF5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -7167,7 +7184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7199,40 +7216,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8324,21 +8334,21 @@
   <dimension ref="A1:J559"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G280" sqref="G280"/>
+      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G478" sqref="G478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="33.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="15" customWidth="1"/>
     <col min="6" max="6" width="31.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="50.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="17"/>
+    <col min="7" max="7" width="52" style="15" customWidth="1"/>
+    <col min="8" max="8" width="50.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
@@ -8354,13 +8364,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="G1" s="26"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1"/>
       <c r="J1"/>
     </row>
@@ -8380,13 +8391,13 @@
       <c r="E2" s="23" t="s">
         <v>1129</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>1831</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="20" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>1599</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="16"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
@@ -8406,13 +8417,13 @@
       <c r="E3" s="23" t="s">
         <v>1129</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>1831</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="20" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>1598</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="16"/>
       <c r="I3"/>
       <c r="J3"/>
     </row>
@@ -8432,13 +8443,13 @@
       <c r="E4" s="23" t="s">
         <v>1129</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>1831</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="20" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>1600</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="16"/>
       <c r="I4"/>
       <c r="J4"/>
     </row>
@@ -8458,13 +8469,13 @@
       <c r="E5" s="23" t="s">
         <v>1353</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1804</v>
-      </c>
-      <c r="H5" s="19"/>
+      <c r="F5" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H5" s="16"/>
       <c r="I5"/>
       <c r="J5"/>
     </row>
@@ -8484,13 +8495,13 @@
       <c r="E6" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="F6" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H6" s="16"/>
       <c r="I6"/>
       <c r="J6"/>
     </row>
@@ -8510,13 +8521,13 @@
       <c r="E7" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>668</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="16"/>
       <c r="I7"/>
       <c r="J7"/>
     </row>
@@ -8536,13 +8547,13 @@
       <c r="E8" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="H8" s="19"/>
+      <c r="F8" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H8" s="16"/>
       <c r="I8"/>
       <c r="J8"/>
     </row>
@@ -8562,13 +8573,13 @@
       <c r="E9" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>1834</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="20" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>672</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="16"/>
       <c r="I9"/>
       <c r="J9"/>
     </row>
@@ -8588,13 +8599,13 @@
       <c r="E10" s="23" t="s">
         <v>881</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>1428</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="16"/>
       <c r="I10"/>
       <c r="J10"/>
     </row>
@@ -8614,13 +8625,13 @@
       <c r="E11" s="23" t="s">
         <v>1129</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>1425</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="16"/>
       <c r="I11"/>
       <c r="J11"/>
     </row>
@@ -8640,13 +8651,13 @@
       <c r="E12" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F12" s="29" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>1120</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="16"/>
       <c r="I12"/>
       <c r="J12"/>
     </row>
@@ -8666,13 +8677,13 @@
       <c r="E13" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>1124</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="16"/>
       <c r="I13"/>
       <c r="J13"/>
     </row>
@@ -8692,13 +8703,13 @@
       <c r="E14" s="23" t="s">
         <v>1129</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>1438</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="16"/>
       <c r="I14"/>
       <c r="J14"/>
     </row>
@@ -8716,13 +8727,13 @@
         <v>480</v>
       </c>
       <c r="E15" s="23"/>
-      <c r="F15" s="29" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>1642</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="16"/>
       <c r="I15"/>
       <c r="J15"/>
     </row>
@@ -8742,13 +8753,13 @@
       <c r="E16" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>1310</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
@@ -8768,13 +8779,13 @@
       <c r="E17" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>1836</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="21" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>1658</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="16"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
@@ -8795,16 +8806,16 @@
         <v>632</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>1837</v>
-      </c>
-      <c r="G18" s="6" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>1687</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="16"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>1318</v>
       </c>
@@ -8821,14 +8832,14 @@
         <v>632</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1837</v>
-      </c>
-      <c r="G19" s="6" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>1687</v>
       </c>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>1320</v>
       </c>
@@ -8845,12 +8856,12 @@
         <v>632</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G20" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>1320</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="14" t="s">
@@ -8867,12 +8878,12 @@
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G21" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>1659</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
@@ -8889,12 +8900,12 @@
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="20" t="s">
-        <v>1838</v>
-      </c>
-      <c r="G22" s="6" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G22" s="27" t="s">
         <v>1546</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
@@ -8911,14 +8922,14 @@
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="20" t="s">
-        <v>1838</v>
-      </c>
-      <c r="G23" s="6" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G23" s="27" t="s">
         <v>1604</v>
       </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>198</v>
       </c>
@@ -8933,14 +8944,14 @@
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="20" t="s">
-        <v>1838</v>
-      </c>
-      <c r="G24" s="6" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>339</v>
       </c>
@@ -8955,12 +8966,12 @@
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="21" t="s">
-        <v>1839</v>
-      </c>
-      <c r="G25" s="6" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G25" s="27" t="s">
         <v>1429</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
@@ -8979,12 +8990,12 @@
         <v>637</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G26" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G26" s="27" t="s">
         <v>680</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
@@ -9003,12 +9014,12 @@
         <v>637</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G27" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G27" s="27" t="s">
         <v>1754</v>
       </c>
-      <c r="H27" s="19"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
@@ -9027,12 +9038,12 @@
         <v>637</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G28" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>1678</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
@@ -9051,12 +9062,12 @@
         <v>637</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G29" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G29" s="27" t="s">
         <v>1674</v>
       </c>
-      <c r="H29" s="19"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
@@ -9075,12 +9086,12 @@
         <v>637</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G30" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G30" s="27" t="s">
         <v>1706</v>
       </c>
-      <c r="H30" s="19"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
@@ -9097,12 +9108,12 @@
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G31" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G31" s="27" t="s">
         <v>1555</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
@@ -9119,12 +9130,12 @@
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G32" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G32" s="27" t="s">
         <v>1551</v>
       </c>
-      <c r="H32" s="19"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="8" t="s">
@@ -9141,12 +9152,12 @@
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G33" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G33" s="27" t="s">
         <v>1661</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
@@ -9163,12 +9174,12 @@
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G34" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>1740</v>
       </c>
-      <c r="H34" s="19"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
@@ -9185,12 +9196,12 @@
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>1810</v>
-      </c>
-      <c r="H35" s="19"/>
+        <v>1839</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
@@ -9207,12 +9218,12 @@
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G36" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G36" s="27" t="s">
         <v>1703</v>
       </c>
-      <c r="H36" s="19"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
@@ -9229,12 +9240,12 @@
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G37" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G37" s="27" t="s">
         <v>1669</v>
       </c>
-      <c r="H37" s="19"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
@@ -9251,12 +9262,12 @@
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G38" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G38" s="27" t="s">
         <v>1662</v>
       </c>
-      <c r="H38" s="19"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -9273,12 +9284,12 @@
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G39" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G39" s="27" t="s">
         <v>1660</v>
       </c>
-      <c r="H39" s="19"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
@@ -9295,12 +9306,12 @@
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G40" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G40" s="27" t="s">
         <v>1664</v>
       </c>
-      <c r="H40" s="19"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
@@ -9317,12 +9328,12 @@
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G41" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G41" s="27" t="s">
         <v>1663</v>
       </c>
-      <c r="H41" s="19"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="8" t="s">
@@ -9339,12 +9350,12 @@
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G42" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G42" s="27" t="s">
         <v>1665</v>
       </c>
-      <c r="H42" s="19"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="8" t="s">
@@ -9361,12 +9372,12 @@
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G43" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G43" s="27" t="s">
         <v>717</v>
       </c>
-      <c r="H43" s="19"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A44" s="8" t="s">
@@ -9383,12 +9394,12 @@
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G44" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G44" s="27" t="s">
         <v>719</v>
       </c>
-      <c r="H44" s="19"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A45" s="8" t="s">
@@ -9405,12 +9416,12 @@
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G45" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G45" s="27" t="s">
         <v>721</v>
       </c>
-      <c r="H45" s="19"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
@@ -9427,12 +9438,12 @@
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>1821</v>
-      </c>
-      <c r="H46" s="19"/>
+        <v>1839</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>1820</v>
+      </c>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A47" s="11" t="s">
@@ -9449,12 +9460,12 @@
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G47" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G47" s="27" t="s">
         <v>1787</v>
       </c>
-      <c r="H47" s="19"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A48" s="11" t="s">
@@ -9471,12 +9482,12 @@
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G48" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G48" s="27" t="s">
         <v>1764</v>
       </c>
-      <c r="H48" s="19"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A49" s="11" t="s">
@@ -9493,12 +9504,12 @@
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G49" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G49" s="27" t="s">
         <v>1763</v>
       </c>
-      <c r="H49" s="19"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="11" t="s">
@@ -9515,12 +9526,12 @@
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G50" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G50" s="27" t="s">
         <v>1760</v>
       </c>
-      <c r="H50" s="19"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A51" s="11" t="s">
@@ -9537,12 +9548,12 @@
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G51" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G51" s="27" t="s">
         <v>1759</v>
       </c>
-      <c r="H51" s="19"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A52" s="11" t="s">
@@ -9559,12 +9570,12 @@
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G52" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G52" s="27" t="s">
         <v>1758</v>
       </c>
-      <c r="H52" s="19"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A53" s="11" t="s">
@@ -9581,12 +9592,12 @@
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G53" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G53" s="27" t="s">
         <v>1636</v>
       </c>
-      <c r="H53" s="19"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A54" s="11" t="s">
@@ -9603,12 +9614,12 @@
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G54" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G54" s="27" t="s">
         <v>1635</v>
       </c>
-      <c r="H54" s="19"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="11" t="s">
@@ -9625,12 +9636,12 @@
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G55" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G55" s="27" t="s">
         <v>1634</v>
       </c>
-      <c r="H55" s="19"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A56" s="11" t="s">
@@ -9647,12 +9658,12 @@
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G56" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G56" s="27" t="s">
         <v>1632</v>
       </c>
-      <c r="H56" s="19"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A57" s="11" t="s">
@@ -9669,12 +9680,12 @@
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G57" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G57" s="27" t="s">
         <v>1631</v>
       </c>
-      <c r="H57" s="19"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="11" t="s">
@@ -9691,12 +9702,12 @@
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G58" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G58" s="27" t="s">
         <v>1630</v>
       </c>
-      <c r="H58" s="19"/>
+      <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="11" t="s">
@@ -9713,12 +9724,12 @@
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G59" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G59" s="27" t="s">
         <v>1629</v>
       </c>
-      <c r="H59" s="19"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="11" t="s">
@@ -9735,12 +9746,12 @@
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G60" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G60" s="27" t="s">
         <v>1628</v>
       </c>
-      <c r="H60" s="19"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A61" s="11" t="s">
@@ -9757,12 +9768,12 @@
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G61" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G61" s="27" t="s">
         <v>1619</v>
       </c>
-      <c r="H61" s="19"/>
+      <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A62" s="11" t="s">
@@ -9779,12 +9790,12 @@
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G62" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G62" s="27" t="s">
         <v>1617</v>
       </c>
-      <c r="H62" s="19"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A63" s="11" t="s">
@@ -9801,12 +9812,12 @@
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G63" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G63" s="27" t="s">
         <v>1616</v>
       </c>
-      <c r="H63" s="19"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A64" s="11" t="s">
@@ -9823,12 +9834,12 @@
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G64" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G64" s="27" t="s">
         <v>1615</v>
       </c>
-      <c r="H64" s="19"/>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A65" s="11" t="s">
@@ -9845,12 +9856,12 @@
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G65" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G65" s="27" t="s">
         <v>1614</v>
       </c>
-      <c r="H65" s="19"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A66" s="11" t="s">
@@ -9867,12 +9878,12 @@
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G66" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G66" s="27" t="s">
         <v>1613</v>
       </c>
-      <c r="H66" s="19"/>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A67" s="11" t="s">
@@ -9889,12 +9900,12 @@
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G67" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G67" s="27" t="s">
         <v>1612</v>
       </c>
-      <c r="H67" s="19"/>
+      <c r="H67" s="16"/>
     </row>
     <row r="68" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A68" s="11" t="s">
@@ -9911,12 +9922,12 @@
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G68" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G68" s="27" t="s">
         <v>1587</v>
       </c>
-      <c r="H68" s="19"/>
+      <c r="H68" s="16"/>
     </row>
     <row r="69" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A69" s="11" t="s">
@@ -9933,12 +9944,12 @@
       </c>
       <c r="E69" s="23"/>
       <c r="F69" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G69" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G69" s="27" t="s">
         <v>1579</v>
       </c>
-      <c r="H69" s="19"/>
+      <c r="H69" s="16"/>
     </row>
     <row r="70" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A70" s="11" t="s">
@@ -9955,12 +9966,12 @@
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G70" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G70" s="27" t="s">
         <v>1578</v>
       </c>
-      <c r="H70" s="19"/>
+      <c r="H70" s="16"/>
     </row>
     <row r="71" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A71" s="11" t="s">
@@ -9977,12 +9988,12 @@
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G71" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G71" s="27" t="s">
         <v>1576</v>
       </c>
-      <c r="H71" s="19"/>
+      <c r="H71" s="16"/>
     </row>
     <row r="72" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="11" t="s">
@@ -9999,12 +10010,12 @@
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G72" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G72" s="27" t="s">
         <v>1575</v>
       </c>
-      <c r="H72" s="19"/>
+      <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="11" t="s">
@@ -10021,12 +10032,12 @@
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G73" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G73" s="27" t="s">
         <v>1574</v>
       </c>
-      <c r="H73" s="19"/>
+      <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A74" s="11" t="s">
@@ -10043,12 +10054,12 @@
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G74" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G74" s="27" t="s">
         <v>1567</v>
       </c>
-      <c r="H74" s="19"/>
+      <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:8" s="6" customFormat="1" ht="16.5">
       <c r="A75" s="11" t="s">
@@ -10065,12 +10076,12 @@
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G75" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G75" s="27" t="s">
         <v>1566</v>
       </c>
-      <c r="H75" s="19"/>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:8" s="6" customFormat="1" ht="16.5">
       <c r="A76" s="11" t="s">
@@ -10087,12 +10098,12 @@
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G76" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G76" s="27" t="s">
         <v>1565</v>
       </c>
-      <c r="H76" s="19"/>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:8" s="6" customFormat="1" ht="16.5">
       <c r="A77" s="11" t="s">
@@ -10109,12 +10120,12 @@
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G77" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G77" s="27" t="s">
         <v>1556</v>
       </c>
-      <c r="H77" s="19"/>
+      <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A78" s="11" t="s">
@@ -10131,12 +10142,12 @@
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G78" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G78" s="27" t="s">
         <v>1554</v>
       </c>
-      <c r="H78" s="19"/>
+      <c r="H78" s="16"/>
     </row>
     <row r="79" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A79" s="11" t="s">
@@ -10153,12 +10164,12 @@
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G79" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G79" s="27" t="s">
         <v>1553</v>
       </c>
-      <c r="H79" s="19"/>
+      <c r="H79" s="16"/>
     </row>
     <row r="80" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A80" s="11" t="s">
@@ -10175,12 +10186,12 @@
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G80" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G80" s="27" t="s">
         <v>1552</v>
       </c>
-      <c r="H80" s="19"/>
+      <c r="H80" s="16"/>
     </row>
     <row r="81" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A81" s="11" t="s">
@@ -10197,12 +10208,12 @@
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G81" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G81" s="27" t="s">
         <v>1550</v>
       </c>
-      <c r="H81" s="19"/>
+      <c r="H81" s="16"/>
     </row>
     <row r="82" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A82" s="11" t="s">
@@ -10219,12 +10230,12 @@
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G82" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G82" s="27" t="s">
         <v>1549</v>
       </c>
-      <c r="H82" s="19"/>
+      <c r="H82" s="16"/>
     </row>
     <row r="83" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A83" s="11" t="s">
@@ -10241,12 +10252,12 @@
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G83" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G83" s="27" t="s">
         <v>1548</v>
       </c>
-      <c r="H83" s="19"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A84" s="11" t="s">
@@ -10263,12 +10274,12 @@
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G84" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G84" s="27" t="s">
         <v>1547</v>
       </c>
-      <c r="H84" s="19"/>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A85" s="11" t="s">
@@ -10285,12 +10296,12 @@
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G85" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G85" s="27" t="s">
         <v>1544</v>
       </c>
-      <c r="H85" s="19"/>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A86" s="11" t="s">
@@ -10307,12 +10318,12 @@
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G86" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G86" s="27" t="s">
         <v>1543</v>
       </c>
-      <c r="H86" s="19"/>
+      <c r="H86" s="16"/>
     </row>
     <row r="87" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A87" s="11" t="s">
@@ -10329,12 +10340,12 @@
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G87" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G87" s="27" t="s">
         <v>1538</v>
       </c>
-      <c r="H87" s="19"/>
+      <c r="H87" s="16"/>
     </row>
     <row r="88" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A88" s="11" t="s">
@@ -10351,12 +10362,12 @@
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G88" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G88" s="27" t="s">
         <v>1533</v>
       </c>
-      <c r="H88" s="19"/>
+      <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A89" s="11" t="s">
@@ -10373,12 +10384,12 @@
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G89" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G89" s="27" t="s">
         <v>1532</v>
       </c>
-      <c r="H89" s="19"/>
+      <c r="H89" s="16"/>
     </row>
     <row r="90" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A90" s="11" t="s">
@@ -10395,12 +10406,12 @@
       </c>
       <c r="E90" s="23"/>
       <c r="F90" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G90" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G90" s="27" t="s">
         <v>1531</v>
       </c>
-      <c r="H90" s="19"/>
+      <c r="H90" s="16"/>
     </row>
     <row r="91" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A91" s="11" t="s">
@@ -10417,12 +10428,12 @@
       </c>
       <c r="E91" s="23"/>
       <c r="F91" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G91" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G91" s="27" t="s">
         <v>1530</v>
       </c>
-      <c r="H91" s="19"/>
+      <c r="H91" s="16"/>
     </row>
     <row r="92" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A92" s="11" t="s">
@@ -10439,12 +10450,12 @@
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G92" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G92" s="27" t="s">
         <v>1529</v>
       </c>
-      <c r="H92" s="19"/>
+      <c r="H92" s="16"/>
     </row>
     <row r="93" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A93" s="11" t="s">
@@ -10461,12 +10472,12 @@
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G93" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G93" s="27" t="s">
         <v>1528</v>
       </c>
-      <c r="H93" s="19"/>
+      <c r="H93" s="16"/>
     </row>
     <row r="94" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A94" s="11" t="s">
@@ -10483,12 +10494,12 @@
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G94" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G94" s="27" t="s">
         <v>1527</v>
       </c>
-      <c r="H94" s="19"/>
+      <c r="H94" s="16"/>
     </row>
     <row r="95" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A95" s="11" t="s">
@@ -10505,12 +10516,12 @@
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G95" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G95" s="27" t="s">
         <v>1526</v>
       </c>
-      <c r="H95" s="19"/>
+      <c r="H95" s="16"/>
     </row>
     <row r="96" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A96" s="11" t="s">
@@ -10527,12 +10538,12 @@
       </c>
       <c r="E96" s="23"/>
       <c r="F96" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G96" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G96" s="27" t="s">
         <v>1525</v>
       </c>
-      <c r="H96" s="19"/>
+      <c r="H96" s="16"/>
     </row>
     <row r="97" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A97" s="11" t="s">
@@ -10549,12 +10560,12 @@
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G97" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G97" s="27" t="s">
         <v>1512</v>
       </c>
-      <c r="H97" s="19"/>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A98" s="11" t="s">
@@ -10571,12 +10582,12 @@
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G98" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G98" s="27" t="s">
         <v>1511</v>
       </c>
-      <c r="H98" s="19"/>
+      <c r="H98" s="16"/>
     </row>
     <row r="99" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A99" s="11" t="s">
@@ -10593,12 +10604,12 @@
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G99" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G99" s="27" t="s">
         <v>1510</v>
       </c>
-      <c r="H99" s="19"/>
+      <c r="H99" s="16"/>
     </row>
     <row r="100" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A100" s="11" t="s">
@@ -10615,12 +10626,12 @@
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G100" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G100" s="27" t="s">
         <v>1508</v>
       </c>
-      <c r="H100" s="19"/>
+      <c r="H100" s="16"/>
     </row>
     <row r="101" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A101" s="11" t="s">
@@ -10637,12 +10648,12 @@
       </c>
       <c r="E101" s="23"/>
       <c r="F101" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G101" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G101" s="27" t="s">
         <v>1484</v>
       </c>
-      <c r="H101" s="19"/>
+      <c r="H101" s="16"/>
     </row>
     <row r="102" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A102" s="11" t="s">
@@ -10659,12 +10670,12 @@
       </c>
       <c r="E102" s="23"/>
       <c r="F102" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G102" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G102" s="27" t="s">
         <v>1483</v>
       </c>
-      <c r="H102" s="19"/>
+      <c r="H102" s="16"/>
     </row>
     <row r="103" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A103" s="11" t="s">
@@ -10681,12 +10692,12 @@
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G103" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G103" s="27" t="s">
         <v>1482</v>
       </c>
-      <c r="H103" s="19"/>
+      <c r="H103" s="16"/>
     </row>
     <row r="104" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A104" s="11" t="s">
@@ -10703,12 +10714,12 @@
       </c>
       <c r="E104" s="23"/>
       <c r="F104" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G104" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G104" s="27" t="s">
         <v>1432</v>
       </c>
-      <c r="H104" s="19"/>
+      <c r="H104" s="16"/>
     </row>
     <row r="105" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A105" s="11" t="s">
@@ -10725,12 +10736,12 @@
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G105" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G105" s="27" t="s">
         <v>1431</v>
       </c>
-      <c r="H105" s="19"/>
+      <c r="H105" s="16"/>
     </row>
     <row r="106" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A106" s="10" t="s">
@@ -10747,14 +10758,14 @@
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G106" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G106" s="27" t="s">
         <v>844</v>
       </c>
-      <c r="H106" s="19"/>
-    </row>
-    <row r="107" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H106" s="16"/>
+    </row>
+    <row r="107" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A107" s="10" t="s">
         <v>846</v>
       </c>
@@ -10769,14 +10780,14 @@
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G107" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G107" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="H107" s="19"/>
-    </row>
-    <row r="108" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H107" s="16"/>
+    </row>
+    <row r="108" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A108" s="10" t="s">
         <v>848</v>
       </c>
@@ -10791,16 +10802,16 @@
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="21" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G108" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G108" s="27" t="s">
         <v>1514</v>
       </c>
-      <c r="H108" s="19"/>
+      <c r="H108" s="16"/>
     </row>
     <row r="109" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>39</v>
@@ -10811,14 +10822,14 @@
       <c r="D109" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E109" s="24"/>
+      <c r="E109" s="17"/>
       <c r="F109" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G109" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G109" s="27" t="s">
         <v>1433</v>
       </c>
-      <c r="H109" s="19"/>
+      <c r="H109" s="16"/>
     </row>
     <row r="110" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
@@ -10837,12 +10848,12 @@
         <v>637</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G110" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G110" s="27" t="s">
         <v>1434</v>
       </c>
-      <c r="H110" s="19"/>
+      <c r="H110" s="16"/>
     </row>
     <row r="111" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A111" s="8" t="s">
@@ -10859,16 +10870,16 @@
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G111" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G111" s="27" t="s">
         <v>1441</v>
       </c>
-      <c r="H111" s="19"/>
+      <c r="H111" s="16"/>
     </row>
     <row r="112" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A112" s="8" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>455</v>
@@ -10881,12 +10892,12 @@
       </c>
       <c r="E112" s="23"/>
       <c r="F112" s="20" t="s">
-        <v>1843</v>
-      </c>
-      <c r="G112" s="6" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G112" s="27" t="s">
         <v>1435</v>
       </c>
-      <c r="H112" s="19"/>
+      <c r="H112" s="16"/>
     </row>
     <row r="113" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A113" s="7" t="s">
@@ -10901,14 +10912,14 @@
       <c r="D113" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E113" s="24"/>
+      <c r="E113" s="17"/>
       <c r="F113" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G113" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G113" s="27" t="s">
         <v>1436</v>
       </c>
-      <c r="H113" s="19"/>
+      <c r="H113" s="16"/>
     </row>
     <row r="114" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A114" s="4" t="s">
@@ -10927,14 +10938,14 @@
         <v>1056</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>1844</v>
-      </c>
-      <c r="G114" s="6" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G114" s="27" t="s">
         <v>1437</v>
       </c>
-      <c r="H114" s="19"/>
-    </row>
-    <row r="115" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H114" s="16"/>
+    </row>
+    <row r="115" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>30</v>
       </c>
@@ -10947,18 +10958,18 @@
       <c r="D115" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E115" s="24" t="s">
+      <c r="E115" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>1852</v>
-      </c>
-      <c r="H115" s="19"/>
-    </row>
-    <row r="116" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+        <v>1831</v>
+      </c>
+      <c r="G115" s="27" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H115" s="16"/>
+    </row>
+    <row r="116" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>1407</v>
       </c>
@@ -10971,14 +10982,14 @@
       <c r="D116" s="3" t="s">
         <v>1409</v>
       </c>
-      <c r="E116" s="24"/>
+      <c r="E116" s="17"/>
       <c r="F116" s="21" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G116" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G116" s="27" t="s">
         <v>1407</v>
       </c>
-      <c r="H116" s="19"/>
+      <c r="H116" s="16"/>
     </row>
     <row r="117" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
@@ -10997,14 +11008,14 @@
         <v>632</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>1845</v>
-      </c>
-      <c r="G117" s="6" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G117" s="27" t="s">
         <v>1439</v>
       </c>
-      <c r="H117" s="19"/>
-    </row>
-    <row r="118" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H117" s="16"/>
+    </row>
+    <row r="118" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>1040</v>
       </c>
@@ -11021,14 +11032,14 @@
         <v>632</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>1845</v>
-      </c>
-      <c r="G118" s="6" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G118" s="27" t="s">
         <v>1534</v>
       </c>
-      <c r="H118" s="19"/>
-    </row>
-    <row r="119" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H118" s="16"/>
+    </row>
+    <row r="119" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A119" s="10" t="s">
         <v>347</v>
       </c>
@@ -11043,16 +11054,16 @@
       </c>
       <c r="E119" s="23"/>
       <c r="F119" s="21" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G119" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G119" s="27" t="s">
         <v>1593</v>
       </c>
-      <c r="H119" s="19"/>
+      <c r="H119" s="16"/>
     </row>
     <row r="120" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A120" s="10" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>1322</v>
@@ -11065,12 +11076,12 @@
       </c>
       <c r="E120" s="23"/>
       <c r="F120" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G120" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G120" s="27" t="s">
         <v>1472</v>
       </c>
-      <c r="H120" s="19"/>
+      <c r="H120" s="16"/>
     </row>
     <row r="121" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A121" s="4" t="s">
@@ -11085,14 +11096,14 @@
       <c r="D121" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="E121" s="24"/>
+      <c r="E121" s="17"/>
       <c r="F121" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G121" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G121" s="27" t="s">
         <v>1473</v>
       </c>
-      <c r="H121" s="19"/>
+      <c r="H121" s="16"/>
     </row>
     <row r="122" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
@@ -11107,12 +11118,14 @@
       <c r="D122" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="24"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="6" t="s">
+      <c r="E122" s="17"/>
+      <c r="F122" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G122" s="27" t="s">
         <v>1667</v>
       </c>
-      <c r="H122" s="19"/>
+      <c r="H122" s="16"/>
     </row>
     <row r="123" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
@@ -11127,14 +11140,14 @@
       <c r="D123" s="3" t="s">
         <v>1415</v>
       </c>
-      <c r="E123" s="24"/>
+      <c r="E123" s="17"/>
       <c r="F123" s="20" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G123" s="6" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G123" s="27" t="s">
         <v>1413</v>
       </c>
-      <c r="H123" s="19"/>
+      <c r="H123" s="16"/>
     </row>
     <row r="124" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A124" s="4" t="s">
@@ -11153,12 +11166,12 @@
         <v>632</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>1848</v>
-      </c>
-      <c r="G124" s="6" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G124" s="27" t="s">
         <v>1442</v>
       </c>
-      <c r="H124" s="19"/>
+      <c r="H124" s="16"/>
     </row>
     <row r="125" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A125" s="4" t="s">
@@ -11177,12 +11190,12 @@
         <v>632</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G125" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G125" s="27" t="s">
         <v>1033</v>
       </c>
-      <c r="H125" s="19"/>
+      <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A126" s="4" t="s">
@@ -11201,12 +11214,12 @@
         <v>632</v>
       </c>
       <c r="F126" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G126" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G126" s="27" t="s">
         <v>1035</v>
       </c>
-      <c r="H126" s="19"/>
+      <c r="H126" s="16"/>
     </row>
     <row r="127" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A127" s="4" t="s">
@@ -11221,14 +11234,14 @@
       <c r="D127" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E127" s="24"/>
+      <c r="E127" s="17"/>
       <c r="F127" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G127" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G127" s="27" t="s">
         <v>1475</v>
       </c>
-      <c r="H127" s="19"/>
+      <c r="H127" s="16"/>
     </row>
     <row r="128" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A128" s="7" t="s">
@@ -11243,14 +11256,14 @@
       <c r="D128" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E128" s="24"/>
+      <c r="E128" s="17"/>
       <c r="F128" s="20" t="s">
-        <v>1849</v>
-      </c>
-      <c r="G128" s="6" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G128" s="27" t="s">
         <v>1443</v>
       </c>
-      <c r="H128" s="19"/>
+      <c r="H128" s="16"/>
     </row>
     <row r="129" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A129" s="7" t="s">
@@ -11265,14 +11278,14 @@
       <c r="D129" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E129" s="24"/>
+      <c r="E129" s="17"/>
       <c r="F129" s="20" t="s">
-        <v>1849</v>
-      </c>
-      <c r="G129" s="6" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G129" s="27" t="s">
         <v>1480</v>
       </c>
-      <c r="H129" s="19"/>
+      <c r="H129" s="16"/>
     </row>
     <row r="130" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A130" s="7" t="s">
@@ -11287,14 +11300,14 @@
       <c r="D130" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E130" s="24"/>
+      <c r="E130" s="17"/>
       <c r="F130" s="20" t="s">
-        <v>1849</v>
-      </c>
-      <c r="G130" s="6" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G130" s="27" t="s">
         <v>1481</v>
       </c>
-      <c r="H130" s="19"/>
+      <c r="H130" s="16"/>
     </row>
     <row r="131" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A131" s="7" t="s">
@@ -11309,16 +11322,16 @@
       <c r="D131" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E131" s="24"/>
+      <c r="E131" s="17"/>
       <c r="F131" s="20" t="s">
-        <v>1849</v>
-      </c>
-      <c r="G131" s="6" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G131" s="27" t="s">
         <v>1668</v>
       </c>
-      <c r="H131" s="19"/>
-    </row>
-    <row r="132" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H131" s="16"/>
+    </row>
+    <row r="132" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A132" s="7" t="s">
         <v>90</v>
       </c>
@@ -11331,16 +11344,16 @@
       <c r="D132" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E132" s="24"/>
+      <c r="E132" s="17"/>
       <c r="F132" s="20" t="s">
-        <v>1849</v>
-      </c>
-      <c r="G132" s="6" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G132" s="27" t="s">
         <v>1671</v>
       </c>
-      <c r="H132" s="19"/>
-    </row>
-    <row r="133" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H132" s="16"/>
+    </row>
+    <row r="133" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A133" s="7" t="s">
         <v>92</v>
       </c>
@@ -11353,14 +11366,14 @@
       <c r="D133" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E133" s="24"/>
+      <c r="E133" s="17"/>
       <c r="F133" s="21" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G133" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G133" s="27" t="s">
         <v>1684</v>
       </c>
-      <c r="H133" s="19"/>
+      <c r="H133" s="16"/>
     </row>
     <row r="134" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A134" s="7" t="s">
@@ -11375,14 +11388,14 @@
       <c r="D134" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E134" s="24"/>
+      <c r="E134" s="17"/>
       <c r="F134" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G134" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G134" s="27" t="s">
         <v>1729</v>
       </c>
-      <c r="H134" s="19"/>
+      <c r="H134" s="16"/>
     </row>
     <row r="135" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A135" s="7" t="s">
@@ -11397,14 +11410,14 @@
       <c r="D135" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E135" s="24"/>
+      <c r="E135" s="17"/>
       <c r="F135" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G135" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G135" s="27" t="s">
         <v>1761</v>
       </c>
-      <c r="H135" s="19"/>
+      <c r="H135" s="16"/>
     </row>
     <row r="136" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A136" s="4" t="s">
@@ -11421,12 +11434,12 @@
       </c>
       <c r="E136" s="23"/>
       <c r="F136" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G136" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G136" s="27" t="s">
         <v>1670</v>
       </c>
-      <c r="H136" s="19"/>
+      <c r="H136" s="16"/>
     </row>
     <row r="137" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A137" s="4" t="s">
@@ -11445,12 +11458,12 @@
         <v>637</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G137" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G137" s="27" t="s">
         <v>1573</v>
       </c>
-      <c r="H137" s="19"/>
+      <c r="H137" s="16"/>
     </row>
     <row r="138" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A138" s="7" t="s">
@@ -11465,14 +11478,14 @@
       <c r="D138" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E138" s="24"/>
+      <c r="E138" s="17"/>
       <c r="F138" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G138" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G138" s="27" t="s">
         <v>1486</v>
       </c>
-      <c r="H138" s="19"/>
+      <c r="H138" s="16"/>
     </row>
     <row r="139" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A139" s="4" t="s">
@@ -11491,12 +11504,12 @@
         <v>632</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G139" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G139" s="27" t="s">
         <v>1288</v>
       </c>
-      <c r="H139" s="19"/>
+      <c r="H139" s="16"/>
     </row>
     <row r="140" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A140" s="4" t="s">
@@ -11515,12 +11528,12 @@
         <v>632</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G140" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G140" s="27" t="s">
         <v>1292</v>
       </c>
-      <c r="H140" s="19"/>
+      <c r="H140" s="16"/>
     </row>
     <row r="141" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A141" s="4" t="s">
@@ -11539,12 +11552,12 @@
         <v>632</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G141" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G141" s="27" t="s">
         <v>1294</v>
       </c>
-      <c r="H141" s="19"/>
+      <c r="H141" s="16"/>
     </row>
     <row r="142" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A142" s="4" t="s">
@@ -11563,12 +11576,12 @@
         <v>632</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G142" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G142" s="27" t="s">
         <v>1296</v>
       </c>
-      <c r="H142" s="19"/>
+      <c r="H142" s="16"/>
     </row>
     <row r="143" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A143" s="4" t="s">
@@ -11587,12 +11600,12 @@
         <v>632</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G143" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G143" s="27" t="s">
         <v>1298</v>
       </c>
-      <c r="H143" s="19"/>
+      <c r="H143" s="16"/>
     </row>
     <row r="144" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A144" s="4" t="s">
@@ -11611,12 +11624,12 @@
         <v>632</v>
       </c>
       <c r="F144" s="20" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G144" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G144" s="27" t="s">
         <v>1300</v>
       </c>
-      <c r="H144" s="19"/>
+      <c r="H144" s="16"/>
     </row>
     <row r="145" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A145" s="4" t="s">
@@ -11635,12 +11648,12 @@
         <v>632</v>
       </c>
       <c r="F145" s="20" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G145" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G145" s="27" t="s">
         <v>1302</v>
       </c>
-      <c r="H145" s="19"/>
+      <c r="H145" s="16"/>
     </row>
     <row r="146" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A146" s="4" t="s">
@@ -11659,12 +11672,12 @@
         <v>632</v>
       </c>
       <c r="F146" s="20" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G146" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G146" s="27" t="s">
         <v>1304</v>
       </c>
-      <c r="H146" s="19"/>
+      <c r="H146" s="16"/>
     </row>
     <row r="147" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A147" s="4" t="s">
@@ -11683,14 +11696,14 @@
         <v>632</v>
       </c>
       <c r="F147" s="20" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G147" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G147" s="27" t="s">
         <v>1306</v>
       </c>
-      <c r="H147" s="19"/>
-    </row>
-    <row r="148" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H147" s="16"/>
+    </row>
+    <row r="148" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A148" s="4" t="s">
         <v>1308</v>
       </c>
@@ -11705,14 +11718,14 @@
       </c>
       <c r="E148" s="23"/>
       <c r="F148" s="20" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G148" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G148" s="27" t="s">
         <v>1487</v>
       </c>
-      <c r="H148" s="19"/>
-    </row>
-    <row r="149" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H148" s="16"/>
+    </row>
+    <row r="149" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>12</v>
       </c>
@@ -11725,14 +11738,14 @@
       <c r="D149" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E149" s="24"/>
+      <c r="E149" s="17"/>
       <c r="F149" s="21" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G149" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G149" s="27" t="s">
         <v>1488</v>
       </c>
-      <c r="H149" s="19"/>
+      <c r="H149" s="16"/>
     </row>
     <row r="150" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A150" s="4" t="s">
@@ -11751,12 +11764,12 @@
         <v>637</v>
       </c>
       <c r="F150" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G150" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G150" s="27" t="s">
         <v>1672</v>
       </c>
-      <c r="H150" s="19"/>
+      <c r="H150" s="16"/>
     </row>
     <row r="151" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
@@ -11771,14 +11784,14 @@
       <c r="D151" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E151" s="24"/>
+      <c r="E151" s="17"/>
       <c r="F151" s="20" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G151" s="6" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G151" s="27" t="s">
         <v>1673</v>
       </c>
-      <c r="H151" s="19"/>
+      <c r="H151" s="16"/>
     </row>
     <row r="152" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A152" s="4" t="s">
@@ -11793,14 +11806,14 @@
       <c r="D152" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E152" s="24"/>
+      <c r="E152" s="17"/>
       <c r="F152" s="20" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G152" s="6" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G152" s="27" t="s">
         <v>1494</v>
       </c>
-      <c r="H152" s="19"/>
+      <c r="H152" s="16"/>
     </row>
     <row r="153" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
@@ -11815,14 +11828,14 @@
       <c r="D153" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E153" s="24"/>
+      <c r="E153" s="17"/>
       <c r="F153" s="20" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G153" s="6" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G153" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="H153" s="19"/>
+      <c r="H153" s="16"/>
     </row>
     <row r="154" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
@@ -11837,14 +11850,14 @@
       <c r="D154" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E154" s="24"/>
+      <c r="E154" s="17"/>
       <c r="F154" s="20" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G154" s="6" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G154" s="27" t="s">
         <v>1493</v>
       </c>
-      <c r="H154" s="19"/>
+      <c r="H154" s="16"/>
     </row>
     <row r="155" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
@@ -11859,14 +11872,14 @@
       <c r="D155" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E155" s="24"/>
+      <c r="E155" s="17"/>
       <c r="F155" s="20" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G155" s="6" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G155" s="27" t="s">
         <v>1494</v>
       </c>
-      <c r="H155" s="19"/>
+      <c r="H155" s="16"/>
     </row>
     <row r="156" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A156" s="7" t="s">
@@ -11881,14 +11894,14 @@
       <c r="D156" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E156" s="24"/>
+      <c r="E156" s="17"/>
       <c r="F156" s="20" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G156" s="6" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G156" s="27" t="s">
         <v>1493</v>
       </c>
-      <c r="H156" s="19"/>
+      <c r="H156" s="16"/>
     </row>
     <row r="157" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A157" s="7" t="s">
@@ -11903,14 +11916,14 @@
       <c r="D157" s="3" t="s">
         <v>1424</v>
       </c>
-      <c r="E157" s="24"/>
+      <c r="E157" s="17"/>
       <c r="F157" s="20" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G157" s="6" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G157" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="H157" s="19"/>
+      <c r="H157" s="16"/>
     </row>
     <row r="158" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A158" s="4" t="s">
@@ -11927,12 +11940,12 @@
       </c>
       <c r="E158" s="23"/>
       <c r="F158" s="20" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G158" s="6" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G158" s="27" t="s">
         <v>1675</v>
       </c>
-      <c r="H158" s="19"/>
+      <c r="H158" s="16"/>
     </row>
     <row r="159" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A159" s="4" t="s">
@@ -11947,14 +11960,14 @@
       <c r="D159" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E159" s="24"/>
+      <c r="E159" s="17"/>
       <c r="F159" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G159" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G159" s="27" t="s">
         <v>1495</v>
       </c>
-      <c r="H159" s="19"/>
+      <c r="H159" s="16"/>
     </row>
     <row r="160" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A160" s="8" t="s">
@@ -11971,12 +11984,12 @@
       </c>
       <c r="E160" s="23"/>
       <c r="F160" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G160" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G160" s="27" t="s">
         <v>1444</v>
       </c>
-      <c r="H160" s="19"/>
+      <c r="H160" s="16"/>
     </row>
     <row r="161" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A161" s="4" t="s">
@@ -11993,14 +12006,14 @@
       </c>
       <c r="E161" s="23"/>
       <c r="F161" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G161" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G161" s="27" t="s">
         <v>1445</v>
       </c>
-      <c r="H161" s="19"/>
-    </row>
-    <row r="162" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H161" s="16"/>
+    </row>
+    <row r="162" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A162" s="4" t="s">
         <v>1186</v>
       </c>
@@ -12017,14 +12030,14 @@
         <v>632</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>1838</v>
-      </c>
-      <c r="G162" s="6" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G162" s="27" t="s">
         <v>1676</v>
       </c>
-      <c r="H162" s="19"/>
-    </row>
-    <row r="163" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H162" s="16"/>
+    </row>
+    <row r="163" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A163" s="4" t="s">
         <v>1190</v>
       </c>
@@ -12041,14 +12054,14 @@
         <v>632</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G163" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G163" s="27" t="s">
         <v>1697</v>
       </c>
-      <c r="H163" s="19"/>
-    </row>
-    <row r="164" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H163" s="16"/>
+    </row>
+    <row r="164" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>1192</v>
       </c>
@@ -12065,14 +12078,14 @@
         <v>632</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>1838</v>
-      </c>
-      <c r="G164" s="6" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G164" s="27" t="s">
         <v>1192</v>
       </c>
-      <c r="H164" s="19"/>
-    </row>
-    <row r="165" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H164" s="16"/>
+    </row>
+    <row r="165" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>1194</v>
       </c>
@@ -12089,12 +12102,12 @@
         <v>632</v>
       </c>
       <c r="F165" s="21" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G165" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G165" s="27" t="s">
         <v>1427</v>
       </c>
-      <c r="H165" s="19"/>
+      <c r="H165" s="16"/>
     </row>
     <row r="166" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A166" s="4" t="s">
@@ -12111,12 +12124,12 @@
       </c>
       <c r="E166" s="23"/>
       <c r="F166" s="20" t="s">
-        <v>1831</v>
-      </c>
-      <c r="G166" s="6" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G166" s="27" t="s">
         <v>1497</v>
       </c>
-      <c r="H166" s="19"/>
+      <c r="H166" s="16"/>
     </row>
     <row r="167" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A167" s="8" t="s">
@@ -12133,12 +12146,12 @@
       </c>
       <c r="E167" s="23"/>
       <c r="F167" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G167" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G167" s="27" t="s">
         <v>1677</v>
       </c>
-      <c r="H167" s="19"/>
+      <c r="H167" s="16"/>
     </row>
     <row r="168" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A168" s="7" t="s">
@@ -12153,14 +12166,14 @@
       <c r="D168" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="E168" s="24"/>
+      <c r="E168" s="17"/>
       <c r="F168" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G168" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G168" s="27" t="s">
         <v>1496</v>
       </c>
-      <c r="H168" s="19"/>
+      <c r="H168" s="16"/>
     </row>
     <row r="169" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A169" s="10" t="s">
@@ -12177,12 +12190,12 @@
       </c>
       <c r="E169" s="23"/>
       <c r="F169" s="20" t="s">
-        <v>1857</v>
-      </c>
-      <c r="G169" s="6" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G169" s="27" t="s">
         <v>1498</v>
       </c>
-      <c r="H169" s="19"/>
+      <c r="H169" s="16"/>
     </row>
     <row r="170" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A170" s="7" t="s">
@@ -12197,14 +12210,14 @@
       <c r="D170" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E170" s="24"/>
+      <c r="E170" s="17"/>
       <c r="F170" s="20" t="s">
-        <v>1858</v>
-      </c>
-      <c r="G170" s="6" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G170" s="27" t="s">
         <v>1500</v>
       </c>
-      <c r="H170" s="19"/>
+      <c r="H170" s="16"/>
     </row>
     <row r="171" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A171" s="4" t="s">
@@ -12223,12 +12236,12 @@
         <v>637</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G171" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G171" s="27" t="s">
         <v>1501</v>
       </c>
-      <c r="H171" s="19"/>
+      <c r="H171" s="16"/>
     </row>
     <row r="172" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A172" s="4" t="s">
@@ -12247,12 +12260,12 @@
         <v>637</v>
       </c>
       <c r="F172" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G172" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G172" s="27" t="s">
         <v>1503</v>
       </c>
-      <c r="H172" s="19"/>
+      <c r="H172" s="16"/>
     </row>
     <row r="173" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A173" s="4" t="s">
@@ -12269,12 +12282,12 @@
       </c>
       <c r="E173" s="23"/>
       <c r="F173" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G173" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G173" s="27" t="s">
         <v>1503</v>
       </c>
-      <c r="H173" s="19"/>
+      <c r="H173" s="16"/>
     </row>
     <row r="174" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A174" s="4" t="s">
@@ -12291,12 +12304,12 @@
       </c>
       <c r="E174" s="23"/>
       <c r="F174" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G174" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G174" s="27" t="s">
         <v>1605</v>
       </c>
-      <c r="H174" s="19"/>
+      <c r="H174" s="16"/>
     </row>
     <row r="175" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A175" s="4" t="s">
@@ -12313,12 +12326,12 @@
       </c>
       <c r="E175" s="23"/>
       <c r="F175" s="20" t="s">
-        <v>1834</v>
-      </c>
-      <c r="G175" s="6" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G175" s="27" t="s">
         <v>1679</v>
       </c>
-      <c r="H175" s="19"/>
+      <c r="H175" s="16"/>
     </row>
     <row r="176" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A176" s="4" t="s">
@@ -12335,12 +12348,12 @@
       </c>
       <c r="E176" s="23"/>
       <c r="F176" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G176" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G176" s="27" t="s">
         <v>1709</v>
       </c>
-      <c r="H176" s="19"/>
+      <c r="H176" s="16"/>
     </row>
     <row r="177" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A177" s="4" t="s">
@@ -12357,12 +12370,12 @@
       </c>
       <c r="E177" s="23"/>
       <c r="F177" s="20" t="s">
-        <v>1859</v>
-      </c>
-      <c r="G177" s="6" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G177" s="27" t="s">
         <v>1733</v>
       </c>
-      <c r="H177" s="19"/>
+      <c r="H177" s="16"/>
     </row>
     <row r="178" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A178" s="4" t="s">
@@ -12379,12 +12392,12 @@
       </c>
       <c r="E178" s="23"/>
       <c r="F178" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G178" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G178" s="27" t="s">
         <v>1755</v>
       </c>
-      <c r="H178" s="19"/>
+      <c r="H178" s="16"/>
     </row>
     <row r="179" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A179" s="4" t="s">
@@ -12400,13 +12413,13 @@
         <v>885</v>
       </c>
       <c r="E179" s="23"/>
-      <c r="F179" s="31" t="s">
-        <v>1860</v>
-      </c>
-      <c r="G179" s="6" t="s">
+      <c r="F179" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G179" s="27" t="s">
         <v>1765</v>
       </c>
-      <c r="H179" s="19"/>
+      <c r="H179" s="16"/>
     </row>
     <row r="180" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A180" s="4" t="s">
@@ -12423,12 +12436,12 @@
       </c>
       <c r="E180" s="23"/>
       <c r="F180" s="20" t="s">
-        <v>1859</v>
-      </c>
-      <c r="G180" s="6" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G180" s="27" t="s">
         <v>1457</v>
       </c>
-      <c r="H180" s="19"/>
+      <c r="H180" s="16"/>
     </row>
     <row r="181" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A181" s="4" t="s">
@@ -12445,12 +12458,12 @@
       </c>
       <c r="E181" s="23"/>
       <c r="F181" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G181" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G181" s="27" t="s">
         <v>1464</v>
       </c>
-      <c r="H181" s="19"/>
+      <c r="H181" s="16"/>
     </row>
     <row r="182" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A182" s="4" t="s">
@@ -12467,12 +12480,12 @@
       </c>
       <c r="E182" s="23"/>
       <c r="F182" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G182" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G182" s="27" t="s">
         <v>1465</v>
       </c>
-      <c r="H182" s="19"/>
+      <c r="H182" s="16"/>
     </row>
     <row r="183" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A183" s="4" t="s">
@@ -12489,12 +12502,12 @@
       </c>
       <c r="E183" s="23"/>
       <c r="F183" s="20" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G183" s="6" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G183" s="27" t="s">
         <v>1479</v>
       </c>
-      <c r="H183" s="19"/>
+      <c r="H183" s="16"/>
     </row>
     <row r="184" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A184" s="4" t="s">
@@ -12511,12 +12524,12 @@
       </c>
       <c r="E184" s="23"/>
       <c r="F184" s="20" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G184" s="6" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G184" s="27" t="s">
         <v>1499</v>
       </c>
-      <c r="H184" s="19"/>
+      <c r="H184" s="16"/>
     </row>
     <row r="185" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A185" s="4" t="s">
@@ -12533,12 +12546,12 @@
       </c>
       <c r="E185" s="23"/>
       <c r="F185" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G185" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G185" s="27" t="s">
         <v>1539</v>
       </c>
-      <c r="H185" s="19"/>
+      <c r="H185" s="16"/>
     </row>
     <row r="186" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A186" s="4" t="s">
@@ -12555,12 +12568,12 @@
       </c>
       <c r="E186" s="23"/>
       <c r="F186" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G186" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G186" s="27" t="s">
         <v>1781</v>
       </c>
-      <c r="H186" s="19"/>
+      <c r="H186" s="16"/>
     </row>
     <row r="187" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A187" s="4" t="s">
@@ -12577,12 +12590,12 @@
       </c>
       <c r="E187" s="23"/>
       <c r="F187" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G187" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G187" s="27" t="s">
         <v>1796</v>
       </c>
-      <c r="H187" s="19"/>
+      <c r="H187" s="16"/>
     </row>
     <row r="188" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A188" s="4" t="s">
@@ -12599,12 +12612,12 @@
       </c>
       <c r="E188" s="23"/>
       <c r="F188" s="20" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G188" s="6" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G188" s="27" t="s">
         <v>912</v>
       </c>
-      <c r="H188" s="19"/>
+      <c r="H188" s="16"/>
     </row>
     <row r="189" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A189" s="4" t="s">
@@ -12621,12 +12634,12 @@
       </c>
       <c r="E189" s="23"/>
       <c r="F189" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G189" s="6" t="s">
-        <v>1863</v>
-      </c>
-      <c r="H189" s="19"/>
+        <v>1831</v>
+      </c>
+      <c r="G189" s="27" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H189" s="16"/>
     </row>
     <row r="190" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A190" s="4" t="s">
@@ -12643,12 +12656,12 @@
       </c>
       <c r="E190" s="23"/>
       <c r="F190" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>1825</v>
-      </c>
-      <c r="H190" s="19"/>
+        <v>1832</v>
+      </c>
+      <c r="G190" s="27" t="s">
+        <v>1824</v>
+      </c>
+      <c r="H190" s="16"/>
     </row>
     <row r="191" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A191" s="8" t="s">
@@ -12665,12 +12678,12 @@
       </c>
       <c r="E191" s="23"/>
       <c r="F191" s="20" t="s">
-        <v>1844</v>
-      </c>
-      <c r="G191" s="6" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G191" s="27" t="s">
         <v>1771</v>
       </c>
-      <c r="H191" s="19"/>
+      <c r="H191" s="16"/>
     </row>
     <row r="192" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A192" s="8" t="s">
@@ -12687,12 +12700,12 @@
       </c>
       <c r="E192" s="23"/>
       <c r="F192" s="20" t="s">
-        <v>1864</v>
-      </c>
-      <c r="G192" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G192" s="27" t="s">
         <v>1710</v>
       </c>
-      <c r="H192" s="19"/>
+      <c r="H192" s="16"/>
     </row>
     <row r="193" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A193" s="8" t="s">
@@ -12709,12 +12722,12 @@
       </c>
       <c r="E193" s="23"/>
       <c r="F193" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G193" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G193" s="27" t="s">
         <v>1557</v>
       </c>
-      <c r="H193" s="19"/>
+      <c r="H193" s="16"/>
     </row>
     <row r="194" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A194" s="10" t="s">
@@ -12731,12 +12744,12 @@
       </c>
       <c r="E194" s="23"/>
       <c r="F194" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G194" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G194" s="27" t="s">
         <v>1478</v>
       </c>
-      <c r="H194" s="19"/>
+      <c r="H194" s="16"/>
     </row>
     <row r="195" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A195" s="4" t="s">
@@ -12753,12 +12766,12 @@
       </c>
       <c r="E195" s="23"/>
       <c r="F195" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G195" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G195" s="27" t="s">
         <v>1620</v>
       </c>
-      <c r="H195" s="19"/>
+      <c r="H195" s="16"/>
     </row>
     <row r="196" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
@@ -12775,12 +12788,12 @@
       </c>
       <c r="E196" s="23"/>
       <c r="F196" s="20" t="s">
-        <v>1844</v>
-      </c>
-      <c r="G196" s="6" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G196" s="27" t="s">
         <v>931</v>
       </c>
-      <c r="H196" s="19"/>
+      <c r="H196" s="16"/>
     </row>
     <row r="197" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A197" s="4" t="s">
@@ -12795,14 +12808,14 @@
       <c r="D197" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="E197" s="24"/>
+      <c r="E197" s="17"/>
       <c r="F197" s="20" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G197" s="6" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G197" s="27" t="s">
         <v>1502</v>
       </c>
-      <c r="H197" s="19"/>
+      <c r="H197" s="16"/>
     </row>
     <row r="198" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A198" s="7" t="s">
@@ -12817,14 +12830,14 @@
       <c r="D198" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="E198" s="24"/>
+      <c r="E198" s="17"/>
       <c r="F198" s="20" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G198" s="6" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G198" s="27" t="s">
         <v>1513</v>
       </c>
-      <c r="H198" s="19"/>
+      <c r="H198" s="16"/>
     </row>
     <row r="199" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A199" s="7" t="s">
@@ -12839,14 +12852,14 @@
       <c r="D199" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="E199" s="24"/>
+      <c r="E199" s="17"/>
       <c r="F199" s="20" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>1816</v>
-      </c>
-      <c r="H199" s="19"/>
+        <v>1846</v>
+      </c>
+      <c r="G199" s="27" t="s">
+        <v>1815</v>
+      </c>
+      <c r="H199" s="16"/>
     </row>
     <row r="200" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
@@ -12861,14 +12874,14 @@
       <c r="D200" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="E200" s="24"/>
+      <c r="E200" s="17"/>
       <c r="F200" s="20" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G200" s="6" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G200" s="27" t="s">
         <v>1398</v>
       </c>
-      <c r="H200" s="19"/>
+      <c r="H200" s="16"/>
     </row>
     <row r="201" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A201" s="4" t="s">
@@ -12885,12 +12898,12 @@
       </c>
       <c r="E201" s="23"/>
       <c r="F201" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G201" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G201" s="27" t="s">
         <v>1680</v>
       </c>
-      <c r="H201" s="19"/>
+      <c r="H201" s="16"/>
     </row>
     <row r="202" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A202" s="10" t="s">
@@ -12907,12 +12920,12 @@
       </c>
       <c r="E202" s="23"/>
       <c r="F202" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G202" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G202" s="27" t="s">
         <v>1504</v>
       </c>
-      <c r="H202" s="19"/>
+      <c r="H202" s="16"/>
     </row>
     <row r="203" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A203" s="10" t="s">
@@ -12929,12 +12942,12 @@
       </c>
       <c r="E203" s="23"/>
       <c r="F203" s="20" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G203" s="6" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G203" s="27" t="s">
         <v>1505</v>
       </c>
-      <c r="H203" s="19"/>
+      <c r="H203" s="16"/>
     </row>
     <row r="204" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A204" s="7" t="s">
@@ -12949,14 +12962,14 @@
       <c r="D204" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E204" s="24"/>
+      <c r="E204" s="17"/>
       <c r="F204" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G204" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G204" s="27" t="s">
         <v>1524</v>
       </c>
-      <c r="H204" s="19"/>
+      <c r="H204" s="16"/>
     </row>
     <row r="205" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A205" s="4" t="s">
@@ -12973,12 +12986,12 @@
       </c>
       <c r="E205" s="23"/>
       <c r="F205" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G205" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G205" s="27" t="s">
         <v>1506</v>
       </c>
-      <c r="H205" s="19"/>
+      <c r="H205" s="16"/>
     </row>
     <row r="206" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A206" s="7" t="s">
@@ -12993,14 +13006,14 @@
       <c r="D206" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="E206" s="24"/>
+      <c r="E206" s="17"/>
       <c r="F206" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G206" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G206" s="27" t="s">
         <v>1681</v>
       </c>
-      <c r="H206" s="19"/>
+      <c r="H206" s="16"/>
     </row>
     <row r="207" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
@@ -13015,14 +13028,14 @@
       <c r="D207" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="E207" s="24"/>
+      <c r="E207" s="17"/>
       <c r="F207" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G207" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G207" s="27" t="s">
         <v>1507</v>
       </c>
-      <c r="H207" s="19"/>
+      <c r="H207" s="16"/>
     </row>
     <row r="208" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
@@ -13037,14 +13050,14 @@
       <c r="D208" s="3" t="s">
         <v>1383</v>
       </c>
-      <c r="E208" s="24"/>
+      <c r="E208" s="17"/>
       <c r="F208" s="20" t="s">
-        <v>1865</v>
-      </c>
-      <c r="G208" s="6" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G208" s="27" t="s">
         <v>1682</v>
       </c>
-      <c r="H208" s="19"/>
+      <c r="H208" s="16"/>
     </row>
     <row r="209" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
@@ -13059,14 +13072,14 @@
       <c r="D209" s="3" t="s">
         <v>1397</v>
       </c>
-      <c r="E209" s="24"/>
+      <c r="E209" s="17"/>
       <c r="F209" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G209" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G209" s="27" t="s">
         <v>1776</v>
       </c>
-      <c r="H209" s="19"/>
+      <c r="H209" s="16"/>
     </row>
     <row r="210" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A210" s="4" t="s">
@@ -13085,12 +13098,12 @@
         <v>637</v>
       </c>
       <c r="F210" s="20" t="s">
-        <v>1865</v>
-      </c>
-      <c r="G210" s="6" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G210" s="27" t="s">
         <v>1515</v>
       </c>
-      <c r="H210" s="19"/>
+      <c r="H210" s="16"/>
     </row>
     <row r="211" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A211" s="7" t="s">
@@ -13105,14 +13118,14 @@
       <c r="D211" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E211" s="24"/>
+      <c r="E211" s="17"/>
       <c r="F211" s="20" t="s">
-        <v>1866</v>
-      </c>
-      <c r="G211" s="6" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G211" s="27" t="s">
         <v>1516</v>
       </c>
-      <c r="H211" s="19"/>
+      <c r="H211" s="16"/>
     </row>
     <row r="212" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A212" s="4" t="s">
@@ -13131,12 +13144,12 @@
         <v>632</v>
       </c>
       <c r="F212" s="20" t="s">
-        <v>1844</v>
-      </c>
-      <c r="G212" s="6" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G212" s="27" t="s">
         <v>1245</v>
       </c>
-      <c r="H212" s="19"/>
+      <c r="H212" s="16"/>
     </row>
     <row r="213" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A213" s="4" t="s">
@@ -13155,12 +13168,12 @@
         <v>632</v>
       </c>
       <c r="F213" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G213" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G213" s="27" t="s">
         <v>1249</v>
       </c>
-      <c r="H213" s="19"/>
+      <c r="H213" s="16"/>
     </row>
     <row r="214" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A214" s="4" t="s">
@@ -13179,12 +13192,12 @@
         <v>637</v>
       </c>
       <c r="F214" s="20" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G214" s="6" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G214" s="27" t="s">
         <v>1683</v>
       </c>
-      <c r="H214" s="19"/>
+      <c r="H214" s="16"/>
     </row>
     <row r="215" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A215" s="4" t="s">
@@ -13201,12 +13214,12 @@
       </c>
       <c r="E215" s="23"/>
       <c r="F215" s="20" t="s">
-        <v>1867</v>
-      </c>
-      <c r="G215" s="6" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G215" s="27" t="s">
         <v>1517</v>
       </c>
-      <c r="H215" s="19"/>
+      <c r="H215" s="16"/>
     </row>
     <row r="216" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A216" s="11" t="s">
@@ -13223,12 +13236,12 @@
       </c>
       <c r="E216" s="23"/>
       <c r="F216" s="20" t="s">
-        <v>1868</v>
-      </c>
-      <c r="G216" s="6" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G216" s="27" t="s">
         <v>1518</v>
       </c>
-      <c r="H216" s="19"/>
+      <c r="H216" s="16"/>
     </row>
     <row r="217" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
@@ -13243,14 +13256,16 @@
       <c r="D217" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E217" s="24" t="s">
+      <c r="E217" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F217" s="5"/>
-      <c r="G217" s="6" t="s">
+      <c r="F217" s="20" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G217" s="27" t="s">
         <v>1641</v>
       </c>
-      <c r="H217" s="19"/>
+      <c r="H217" s="16"/>
     </row>
     <row r="218" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A218" s="2" t="s">
@@ -13265,14 +13280,16 @@
       <c r="D218" s="3" t="s">
         <v>1385</v>
       </c>
-      <c r="E218" s="24" t="s">
+      <c r="E218" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F218" s="5"/>
-      <c r="G218" s="6" t="s">
+      <c r="F218" s="20" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G218" s="27" t="s">
         <v>1519</v>
       </c>
-      <c r="H218" s="19"/>
+      <c r="H218" s="16"/>
     </row>
     <row r="219" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
@@ -13287,14 +13304,14 @@
       <c r="D219" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E219" s="24"/>
+      <c r="E219" s="17"/>
       <c r="F219" s="20" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G219" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G219" s="27" t="s">
         <v>1625</v>
       </c>
-      <c r="H219" s="19"/>
+      <c r="H219" s="16"/>
     </row>
     <row r="220" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
@@ -13309,14 +13326,14 @@
       <c r="D220" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E220" s="24"/>
+      <c r="E220" s="17"/>
       <c r="F220" s="20" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G220" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G220" s="27" t="s">
         <v>1520</v>
       </c>
-      <c r="H220" s="19"/>
+      <c r="H220" s="16"/>
     </row>
     <row r="221" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
@@ -13331,14 +13348,14 @@
       <c r="D221" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E221" s="24"/>
+      <c r="E221" s="17"/>
       <c r="F221" s="20" t="s">
-        <v>1868</v>
-      </c>
-      <c r="G221" s="6" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G221" s="27" t="s">
         <v>1624</v>
       </c>
-      <c r="H221" s="19"/>
+      <c r="H221" s="16"/>
     </row>
     <row r="222" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
@@ -13353,14 +13370,14 @@
       <c r="D222" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E222" s="24"/>
+      <c r="E222" s="17"/>
       <c r="F222" s="20" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G222" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G222" s="27" t="s">
         <v>1623</v>
       </c>
-      <c r="H222" s="19"/>
+      <c r="H222" s="16"/>
     </row>
     <row r="223" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
@@ -13375,14 +13392,14 @@
       <c r="D223" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E223" s="24"/>
+      <c r="E223" s="17"/>
       <c r="F223" s="20" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G223" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G223" s="27" t="s">
         <v>1485</v>
       </c>
-      <c r="H223" s="19"/>
+      <c r="H223" s="16"/>
     </row>
     <row r="224" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
@@ -13397,14 +13414,14 @@
       <c r="D224" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E224" s="24"/>
+      <c r="E224" s="17"/>
       <c r="F224" s="20" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G224" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G224" s="27" t="s">
         <v>1618</v>
       </c>
-      <c r="H224" s="19"/>
+      <c r="H224" s="16"/>
     </row>
     <row r="225" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A225" s="2" t="s">
@@ -13419,14 +13436,14 @@
       <c r="D225" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E225" s="24"/>
+      <c r="E225" s="17"/>
       <c r="F225" s="20" t="s">
-        <v>1870</v>
-      </c>
-      <c r="G225" s="6" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G225" s="27" t="s">
         <v>1627</v>
       </c>
-      <c r="H225" s="19"/>
+      <c r="H225" s="16"/>
     </row>
     <row r="226" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A226" s="2" t="s">
@@ -13441,14 +13458,14 @@
       <c r="D226" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E226" s="24"/>
+      <c r="E226" s="17"/>
       <c r="F226" s="20" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G226" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G226" s="27" t="s">
         <v>1626</v>
       </c>
-      <c r="H226" s="19"/>
+      <c r="H226" s="16"/>
     </row>
     <row r="227" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A227" s="2" t="s">
@@ -13463,14 +13480,14 @@
       <c r="D227" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E227" s="24"/>
+      <c r="E227" s="17"/>
       <c r="F227" s="20" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G227" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G227" s="27" t="s">
         <v>1622</v>
       </c>
-      <c r="H227" s="19"/>
+      <c r="H227" s="16"/>
     </row>
     <row r="228" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A228" s="2" t="s">
@@ -13485,14 +13502,14 @@
       <c r="D228" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E228" s="24"/>
+      <c r="E228" s="17"/>
       <c r="F228" s="20" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G228" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G228" s="27" t="s">
         <v>1621</v>
       </c>
-      <c r="H228" s="19"/>
+      <c r="H228" s="16"/>
     </row>
     <row r="229" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A229" s="4" t="s">
@@ -13511,12 +13528,12 @@
         <v>637</v>
       </c>
       <c r="F229" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G229" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G229" s="27" t="s">
         <v>1063</v>
       </c>
-      <c r="H229" s="19"/>
+      <c r="H229" s="16"/>
     </row>
     <row r="230" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A230" s="8" t="s">
@@ -13532,13 +13549,13 @@
         <v>293</v>
       </c>
       <c r="E230" s="23"/>
-      <c r="F230" s="6" t="s">
+      <c r="F230" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G230" s="27" t="s">
         <v>1521</v>
       </c>
-      <c r="G230" s="6" t="s">
-        <v>1521</v>
-      </c>
-      <c r="H230" s="19"/>
+      <c r="H230" s="16"/>
     </row>
     <row r="231" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A231" s="8" t="s">
@@ -13555,12 +13572,12 @@
       </c>
       <c r="E231" s="23"/>
       <c r="F231" s="20" t="s">
-        <v>1866</v>
-      </c>
-      <c r="G231" s="6" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G231" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="H231" s="19"/>
+      <c r="H231" s="16"/>
     </row>
     <row r="232" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A232" s="4" t="s">
@@ -13577,12 +13594,12 @@
       </c>
       <c r="E232" s="23"/>
       <c r="F232" s="20" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G232" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G232" s="27" t="s">
         <v>1522</v>
       </c>
-      <c r="H232" s="19"/>
+      <c r="H232" s="16"/>
     </row>
     <row r="233" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A233" s="4" t="s">
@@ -13601,12 +13618,12 @@
         <v>637</v>
       </c>
       <c r="F233" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G233" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G233" s="27" t="s">
         <v>1523</v>
       </c>
-      <c r="H233" s="19"/>
+      <c r="H233" s="16"/>
     </row>
     <row r="234" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A234" s="2" t="s">
@@ -13621,16 +13638,16 @@
       <c r="D234" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="E234" s="24" t="s">
+      <c r="E234" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F234" s="20" t="s">
-        <v>1844</v>
-      </c>
-      <c r="G234" s="6" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G234" s="27" t="s">
         <v>1685</v>
       </c>
-      <c r="H234" s="19"/>
+      <c r="H234" s="16"/>
     </row>
     <row r="235" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A235" s="2" t="s">
@@ -13649,12 +13666,12 @@
         <v>1357</v>
       </c>
       <c r="F235" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G235" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G235" s="27" t="s">
         <v>1541</v>
       </c>
-      <c r="H235" s="19"/>
+      <c r="H235" s="16"/>
     </row>
     <row r="236" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A236" s="7" t="s">
@@ -13669,14 +13686,14 @@
       <c r="D236" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="E236" s="24"/>
+      <c r="E236" s="17"/>
       <c r="F236" s="20" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G236" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G236" s="27" t="s">
         <v>1542</v>
       </c>
-      <c r="H236" s="19"/>
+      <c r="H236" s="16"/>
     </row>
     <row r="237" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A237" s="4" t="s">
@@ -13692,13 +13709,13 @@
         <v>353</v>
       </c>
       <c r="E237" s="23"/>
-      <c r="F237" s="6" t="s">
+      <c r="F237" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G237" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="G237" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="H237" s="19"/>
+      <c r="H237" s="16"/>
     </row>
     <row r="238" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A238" s="4" t="s">
@@ -13715,34 +13732,34 @@
       </c>
       <c r="E238" s="23"/>
       <c r="F238" s="20" t="s">
-        <v>1844</v>
-      </c>
-      <c r="G238" s="6" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G238" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="H238" s="19"/>
+      <c r="H238" s="16"/>
     </row>
     <row r="239" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A239" s="15" t="s">
+      <c r="A239" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B239" s="16" t="s">
+      <c r="B239" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C239" s="18" t="s">
+      <c r="C239" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D239" s="16" t="s">
+      <c r="D239" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="E239" s="25"/>
+      <c r="E239" s="23"/>
       <c r="F239" s="20" t="s">
-        <v>1844</v>
-      </c>
-      <c r="G239" s="6" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G239" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="H239" s="19"/>
+      <c r="H239" s="16"/>
     </row>
     <row r="240" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A240" s="4" t="s">
@@ -13759,12 +13776,12 @@
       </c>
       <c r="E240" s="23"/>
       <c r="F240" s="20" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G240" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="H240" s="19"/>
+      <c r="H240" s="16"/>
     </row>
     <row r="241" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A241" s="4" t="s">
@@ -13781,12 +13798,12 @@
       </c>
       <c r="E241" s="23"/>
       <c r="F241" s="20" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G241" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="H241" s="19"/>
+      <c r="H241" s="16"/>
     </row>
     <row r="242" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A242" s="4" t="s">
@@ -13803,12 +13820,12 @@
       </c>
       <c r="E242" s="23"/>
       <c r="F242" s="20" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G242" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="H242" s="19"/>
+      <c r="H242" s="16"/>
     </row>
     <row r="243" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A243" s="4" t="s">
@@ -13825,12 +13842,12 @@
       </c>
       <c r="E243" s="23"/>
       <c r="F243" s="20" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G243" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="H243" s="19"/>
+      <c r="H243" s="16"/>
     </row>
     <row r="244" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A244" s="4" t="s">
@@ -13847,12 +13864,12 @@
       </c>
       <c r="E244" s="23"/>
       <c r="F244" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G244" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="H244" s="19"/>
+      <c r="H244" s="16"/>
     </row>
     <row r="245" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A245" s="4" t="s">
@@ -13869,12 +13886,12 @@
       </c>
       <c r="E245" s="23"/>
       <c r="F245" s="20" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G245" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="H245" s="19"/>
+      <c r="H245" s="16"/>
     </row>
     <row r="246" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A246" s="4" t="s">
@@ -13891,12 +13908,12 @@
       </c>
       <c r="E246" s="23"/>
       <c r="F246" s="20" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="G246" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="H246" s="19"/>
+      <c r="H246" s="16"/>
     </row>
     <row r="247" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A247" s="2" t="s">
@@ -13913,12 +13930,12 @@
       </c>
       <c r="E247" s="23"/>
       <c r="F247" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G247" s="27" t="s">
         <v>1466</v>
       </c>
-      <c r="H247" s="19"/>
+      <c r="H247" s="16"/>
     </row>
     <row r="248" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
@@ -13935,12 +13952,12 @@
       </c>
       <c r="E248" s="23"/>
       <c r="F248" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G248" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="H248" s="19"/>
+      <c r="H248" s="16"/>
     </row>
     <row r="249" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A249" s="4" t="s">
@@ -13957,12 +13974,12 @@
       </c>
       <c r="E249" s="23"/>
       <c r="F249" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G249" s="27" t="s">
         <v>1560</v>
       </c>
-      <c r="H249" s="19"/>
+      <c r="H249" s="16"/>
     </row>
     <row r="250" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A250" s="8" t="s">
@@ -13979,12 +13996,12 @@
       </c>
       <c r="E250" s="23"/>
       <c r="F250" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G250" s="27" t="s">
         <v>1644</v>
       </c>
-      <c r="H250" s="19"/>
+      <c r="H250" s="16"/>
     </row>
     <row r="251" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A251" s="2" t="s">
@@ -14003,12 +14020,12 @@
         <v>632</v>
       </c>
       <c r="F251" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G251" s="27" t="s">
         <v>1686</v>
       </c>
-      <c r="H251" s="19"/>
+      <c r="H251" s="16"/>
     </row>
     <row r="252" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A252" s="2" t="s">
@@ -14025,12 +14042,12 @@
         <v>632</v>
       </c>
       <c r="F252" s="20" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G252" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G252" s="27" t="s">
         <v>1563</v>
       </c>
-      <c r="H252" s="19"/>
+      <c r="H252" s="16"/>
     </row>
     <row r="253" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A253" s="2" t="s">
@@ -14047,12 +14064,12 @@
         <v>632</v>
       </c>
       <c r="F253" s="20" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G253" s="27" t="s">
         <v>1405</v>
       </c>
-      <c r="H253" s="19"/>
+      <c r="H253" s="16"/>
     </row>
     <row r="254" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A254" s="4" t="s">
@@ -14071,12 +14088,12 @@
         <v>637</v>
       </c>
       <c r="F254" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G254" s="27" t="s">
         <v>992</v>
       </c>
-      <c r="H254" s="19"/>
+      <c r="H254" s="16"/>
     </row>
     <row r="255" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A255" s="4" t="s">
@@ -14095,12 +14112,12 @@
         <v>637</v>
       </c>
       <c r="F255" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G255" s="27" t="s">
         <v>995</v>
       </c>
-      <c r="H255" s="19"/>
+      <c r="H255" s="16"/>
     </row>
     <row r="256" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A256" s="8" t="s">
@@ -14117,12 +14134,12 @@
       </c>
       <c r="E256" s="23"/>
       <c r="F256" s="20" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G256" s="27" t="s">
         <v>1568</v>
       </c>
-      <c r="H256" s="19"/>
+      <c r="H256" s="16"/>
     </row>
     <row r="257" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A257" s="10" t="s">
@@ -14139,12 +14156,12 @@
       </c>
       <c r="E257" s="23"/>
       <c r="F257" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G257" s="27" t="s">
         <v>1569</v>
       </c>
-      <c r="H257" s="19"/>
+      <c r="H257" s="16"/>
     </row>
     <row r="258" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A258" s="9" t="s">
@@ -14161,12 +14178,12 @@
       </c>
       <c r="E258" s="23"/>
       <c r="F258" s="20" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G258" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="H258" s="19"/>
+      <c r="H258" s="16"/>
     </row>
     <row r="259" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A259" s="4" t="s">
@@ -14183,12 +14200,12 @@
       </c>
       <c r="E259" s="23"/>
       <c r="F259" s="20" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G259" s="27" t="s">
         <v>1545</v>
       </c>
-      <c r="H259" s="19"/>
+      <c r="H259" s="16"/>
     </row>
     <row r="260" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A260" s="4" t="s">
@@ -14205,12 +14222,12 @@
       </c>
       <c r="E260" s="23"/>
       <c r="F260" s="20" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G260" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="H260" s="19"/>
+      <c r="H260" s="16"/>
     </row>
     <row r="261" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A261" s="4" t="s">
@@ -14226,13 +14243,13 @@
         <v>247</v>
       </c>
       <c r="E261" s="23"/>
-      <c r="F261" s="32" t="s">
-        <v>1872</v>
+      <c r="F261" s="20" t="s">
+        <v>1869</v>
       </c>
       <c r="G261" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="H261" s="19"/>
+      <c r="H261" s="16"/>
     </row>
     <row r="262" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A262" s="4" t="s">
@@ -14249,12 +14266,12 @@
       </c>
       <c r="E262" s="23"/>
       <c r="F262" s="20" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G262" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="H262" s="19"/>
+      <c r="H262" s="16"/>
     </row>
     <row r="263" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A263" s="4" t="s">
@@ -14271,12 +14288,12 @@
       </c>
       <c r="E263" s="23"/>
       <c r="F263" s="20" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G263" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="H263" s="19"/>
+      <c r="H263" s="16"/>
     </row>
     <row r="264" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A264" s="4" t="s">
@@ -14293,12 +14310,12 @@
       </c>
       <c r="E264" s="23"/>
       <c r="F264" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G264" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="H264" s="19"/>
+      <c r="H264" s="16"/>
     </row>
     <row r="265" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A265" s="4" t="s">
@@ -14315,14 +14332,14 @@
       </c>
       <c r="E265" s="23"/>
       <c r="F265" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G265" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="H265" s="19"/>
-    </row>
-    <row r="266" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H265" s="16"/>
+    </row>
+    <row r="266" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A266" s="4" t="s">
         <v>261</v>
       </c>
@@ -14337,14 +14354,14 @@
       </c>
       <c r="E266" s="23"/>
       <c r="F266" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G266" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="H266" s="19"/>
-    </row>
-    <row r="267" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H266" s="16"/>
+    </row>
+    <row r="267" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A267" s="4" t="s">
         <v>263</v>
       </c>
@@ -14358,15 +14375,15 @@
         <v>247</v>
       </c>
       <c r="E267" s="23"/>
-      <c r="F267" s="21" t="s">
-        <v>1833</v>
+      <c r="F267" s="20" t="s">
+        <v>1832</v>
       </c>
       <c r="G267" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="H267" s="19"/>
-    </row>
-    <row r="268" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H267" s="16"/>
+    </row>
+    <row r="268" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A268" s="4" t="s">
         <v>265</v>
       </c>
@@ -14380,13 +14397,13 @@
         <v>247</v>
       </c>
       <c r="E268" s="23"/>
-      <c r="F268" s="21" t="s">
-        <v>1833</v>
+      <c r="F268" s="20" t="s">
+        <v>1832</v>
       </c>
       <c r="G268" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="H268" s="19"/>
+      <c r="H268" s="16"/>
     </row>
     <row r="269" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A269" s="4" t="s">
@@ -14403,12 +14420,12 @@
       </c>
       <c r="E269" s="23"/>
       <c r="F269" s="20" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G269" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="H269" s="19"/>
+      <c r="H269" s="16"/>
     </row>
     <row r="270" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A270" s="4" t="s">
@@ -14425,12 +14442,12 @@
       </c>
       <c r="E270" s="23"/>
       <c r="F270" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G270" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="H270" s="19"/>
+      <c r="H270" s="16"/>
     </row>
     <row r="271" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A271" s="4" t="s">
@@ -14447,12 +14464,12 @@
       </c>
       <c r="E271" s="23"/>
       <c r="F271" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G271" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="H271" s="19"/>
+      <c r="H271" s="16"/>
     </row>
     <row r="272" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A272" s="4" t="s">
@@ -14469,12 +14486,12 @@
       </c>
       <c r="E272" s="23"/>
       <c r="F272" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G272" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="H272" s="19"/>
+      <c r="H272" s="16"/>
     </row>
     <row r="273" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A273" s="4" t="s">
@@ -14491,12 +14508,12 @@
       </c>
       <c r="E273" s="23"/>
       <c r="F273" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G273" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="H273" s="19"/>
+      <c r="H273" s="16"/>
     </row>
     <row r="274" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A274" s="4" t="s">
@@ -14515,12 +14532,12 @@
         <v>637</v>
       </c>
       <c r="F274" s="20" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="G274" s="27" t="s">
         <v>980</v>
       </c>
-      <c r="H274" s="19"/>
+      <c r="H274" s="16"/>
     </row>
     <row r="275" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A275" s="4" t="s">
@@ -14537,12 +14554,12 @@
       </c>
       <c r="E275" s="23"/>
       <c r="F275" s="20" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G275" s="27" t="s">
         <v>1558</v>
       </c>
-      <c r="H275" s="19"/>
+      <c r="H275" s="16"/>
     </row>
     <row r="276" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
@@ -14557,14 +14574,14 @@
       <c r="D276" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E276" s="24"/>
+      <c r="E276" s="17"/>
       <c r="F276" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G276" s="27" t="s">
-        <v>1853</v>
-      </c>
-      <c r="H276" s="19"/>
+        <v>1852</v>
+      </c>
+      <c r="H276" s="16"/>
     </row>
     <row r="277" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="4" t="s">
@@ -14581,12 +14598,12 @@
       </c>
       <c r="E277" s="23"/>
       <c r="F277" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G277" s="27" t="s">
         <v>1448</v>
       </c>
-      <c r="H277" s="19"/>
+      <c r="H277" s="16"/>
     </row>
     <row r="278" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A278" s="4" t="s">
@@ -14602,13 +14619,13 @@
         <v>216</v>
       </c>
       <c r="E278" s="23"/>
-      <c r="F278" s="32" t="s">
-        <v>1875</v>
+      <c r="F278" s="20" t="s">
+        <v>1872</v>
       </c>
       <c r="G278" s="27" t="s">
         <v>1572</v>
       </c>
-      <c r="H278" s="19"/>
+      <c r="H278" s="16"/>
     </row>
     <row r="279" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A279" s="11" t="s">
@@ -14625,12 +14642,12 @@
       </c>
       <c r="E279" s="23"/>
       <c r="F279" s="20" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="G279" s="27" t="s">
         <v>1688</v>
       </c>
-      <c r="H279" s="19"/>
+      <c r="H279" s="16"/>
     </row>
     <row r="280" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A280" s="4" t="s">
@@ -14646,13 +14663,13 @@
         <v>191</v>
       </c>
       <c r="E280" s="23"/>
-      <c r="F280" s="27" t="s">
-        <v>1577</v>
+      <c r="F280" s="20" t="s">
+        <v>1865</v>
       </c>
       <c r="G280" s="27" t="s">
         <v>1577</v>
       </c>
-      <c r="H280" s="19"/>
+      <c r="H280" s="16"/>
     </row>
     <row r="281" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A281" s="4" t="s">
@@ -14670,13 +14687,13 @@
       <c r="E281" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F281" s="27" t="s">
-        <v>1474</v>
+      <c r="F281" s="20" t="s">
+        <v>1831</v>
       </c>
       <c r="G281" s="27" t="s">
         <v>1474</v>
       </c>
-      <c r="H281" s="19"/>
+      <c r="H281" s="16"/>
     </row>
     <row r="282" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A282" s="2" t="s">
@@ -14691,14 +14708,14 @@
       <c r="D282" s="3" t="s">
         <v>1412</v>
       </c>
-      <c r="E282" s="24"/>
-      <c r="F282" s="27" t="s">
-        <v>1582</v>
+      <c r="E282" s="17"/>
+      <c r="F282" s="20" t="s">
+        <v>1836</v>
       </c>
       <c r="G282" s="27" t="s">
         <v>1582</v>
       </c>
-      <c r="H282" s="19"/>
+      <c r="H282" s="16"/>
     </row>
     <row r="283" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A283" s="10" t="s">
@@ -14714,13 +14731,13 @@
         <v>1147</v>
       </c>
       <c r="E283" s="23"/>
-      <c r="F283" s="27" t="s">
-        <v>1802</v>
+      <c r="F283" s="20" t="s">
+        <v>1873</v>
       </c>
       <c r="G283" s="27" t="s">
-        <v>1802</v>
-      </c>
-      <c r="H283" s="19"/>
+        <v>1801</v>
+      </c>
+      <c r="H283" s="16"/>
     </row>
     <row r="284" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A284" s="8" t="s">
@@ -14736,13 +14753,13 @@
         <v>437</v>
       </c>
       <c r="E284" s="23"/>
-      <c r="F284" s="27" t="s">
-        <v>1450</v>
+      <c r="F284" s="20" t="s">
+        <v>1874</v>
       </c>
       <c r="G284" s="27" t="s">
         <v>1450</v>
       </c>
-      <c r="H284" s="19"/>
+      <c r="H284" s="16"/>
     </row>
     <row r="285" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A285" s="4" t="s">
@@ -14758,10 +14775,13 @@
         <v>289</v>
       </c>
       <c r="E285" s="23"/>
+      <c r="F285" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G285" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="H285" s="19"/>
+      <c r="H285" s="16"/>
     </row>
     <row r="286" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A286" s="2" t="s">
@@ -14776,12 +14796,14 @@
       <c r="D286" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E286" s="24"/>
-      <c r="F286" s="5"/>
+      <c r="E286" s="17"/>
+      <c r="F286" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G286" s="27" t="s">
         <v>1689</v>
       </c>
-      <c r="H286" s="19"/>
+      <c r="H286" s="16"/>
     </row>
     <row r="287" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A287" s="2" t="s">
@@ -14796,12 +14818,14 @@
       <c r="D287" s="3" t="s">
         <v>1388</v>
       </c>
-      <c r="E287" s="24"/>
-      <c r="F287" s="5"/>
+      <c r="E287" s="17"/>
+      <c r="F287" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G287" s="27" t="s">
         <v>1690</v>
       </c>
-      <c r="H287" s="19"/>
+      <c r="H287" s="16"/>
     </row>
     <row r="288" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A288" s="11" t="s">
@@ -14816,12 +14840,14 @@
       <c r="D288" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="E288" s="24"/>
-      <c r="F288" s="5"/>
+      <c r="E288" s="17"/>
+      <c r="F288" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G288" s="27" t="s">
         <v>1509</v>
       </c>
-      <c r="H288" s="19"/>
+      <c r="H288" s="16"/>
     </row>
     <row r="289" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A289" s="11" t="s">
@@ -14837,10 +14863,13 @@
         <v>1085</v>
       </c>
       <c r="E289" s="23"/>
+      <c r="F289" s="20" t="s">
+        <v>1846</v>
+      </c>
       <c r="G289" s="27" t="s">
         <v>1768</v>
       </c>
-      <c r="H289" s="19"/>
+      <c r="H289" s="16"/>
     </row>
     <row r="290" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A290" s="11" t="s">
@@ -14856,10 +14885,13 @@
         <v>1085</v>
       </c>
       <c r="E290" s="23"/>
+      <c r="F290" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G290" s="27" t="s">
         <v>1490</v>
       </c>
-      <c r="H290" s="19"/>
+      <c r="H290" s="16"/>
     </row>
     <row r="291" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A291" s="11" t="s">
@@ -14875,10 +14907,13 @@
         <v>1085</v>
       </c>
       <c r="E291" s="23"/>
+      <c r="F291" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G291" s="27" t="s">
         <v>1509</v>
       </c>
-      <c r="H291" s="19"/>
+      <c r="H291" s="16"/>
     </row>
     <row r="292" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A292" s="11" t="s">
@@ -14894,10 +14929,13 @@
         <v>1085</v>
       </c>
       <c r="E292" s="23"/>
+      <c r="F292" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G292" s="27" t="s">
         <v>1584</v>
       </c>
-      <c r="H292" s="19"/>
+      <c r="H292" s="16"/>
     </row>
     <row r="293" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A293" s="11" t="s">
@@ -14913,10 +14951,13 @@
         <v>1085</v>
       </c>
       <c r="E293" s="23"/>
+      <c r="F293" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G293" s="27" t="s">
         <v>1585</v>
       </c>
-      <c r="H293" s="19"/>
+      <c r="H293" s="16"/>
     </row>
     <row r="294" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A294" s="11" t="s">
@@ -14932,10 +14973,13 @@
         <v>1085</v>
       </c>
       <c r="E294" s="23"/>
+      <c r="F294" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G294" s="27" t="s">
         <v>1586</v>
       </c>
-      <c r="H294" s="19"/>
+      <c r="H294" s="16"/>
     </row>
     <row r="295" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A295" s="7" t="s">
@@ -14950,12 +14994,14 @@
       <c r="D295" s="8" t="s">
         <v>1085</v>
       </c>
-      <c r="E295" s="24"/>
-      <c r="F295" s="5"/>
+      <c r="E295" s="17"/>
+      <c r="F295" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G295" s="27" t="s">
         <v>1773</v>
       </c>
-      <c r="H295" s="19"/>
+      <c r="H295" s="16"/>
     </row>
     <row r="296" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A296" s="7" t="s">
@@ -14970,12 +15016,14 @@
       <c r="D296" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="E296" s="24"/>
-      <c r="F296" s="5"/>
+      <c r="E296" s="17"/>
+      <c r="F296" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G296" s="27" t="s">
         <v>1773</v>
       </c>
-      <c r="H296" s="19"/>
+      <c r="H296" s="16"/>
     </row>
     <row r="297" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A297" s="2" t="s">
@@ -14990,12 +15038,14 @@
       <c r="D297" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="E297" s="24"/>
-      <c r="F297" s="5"/>
+      <c r="E297" s="17"/>
+      <c r="F297" s="20" t="s">
+        <v>1846</v>
+      </c>
       <c r="G297" s="27" t="s">
-        <v>1799</v>
-      </c>
-      <c r="H297" s="19"/>
+        <v>1798</v>
+      </c>
+      <c r="H297" s="16"/>
     </row>
     <row r="298" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A298" s="2" t="s">
@@ -15010,12 +15060,14 @@
       <c r="D298" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="E298" s="24"/>
-      <c r="F298" s="5"/>
+      <c r="E298" s="17"/>
+      <c r="F298" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G298" s="27" t="s">
-        <v>1823</v>
-      </c>
-      <c r="H298" s="19"/>
+        <v>1822</v>
+      </c>
+      <c r="H298" s="16"/>
     </row>
     <row r="299" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A299" s="2" t="s">
@@ -15030,12 +15082,14 @@
       <c r="D299" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="E299" s="24"/>
-      <c r="F299" s="5"/>
+      <c r="E299" s="17"/>
+      <c r="F299" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G299" s="27" t="s">
         <v>1540</v>
       </c>
-      <c r="H299" s="19"/>
+      <c r="H299" s="16"/>
     </row>
     <row r="300" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A300" s="2" t="s">
@@ -15050,12 +15104,14 @@
       <c r="D300" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="E300" s="24"/>
-      <c r="F300" s="5"/>
+      <c r="E300" s="17"/>
+      <c r="F300" s="20" t="s">
+        <v>1846</v>
+      </c>
       <c r="G300" s="27" t="s">
         <v>1491</v>
       </c>
-      <c r="H300" s="19"/>
+      <c r="H300" s="16"/>
     </row>
     <row r="301" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A301" s="2" t="s">
@@ -15070,12 +15126,14 @@
       <c r="D301" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="E301" s="24"/>
-      <c r="F301" s="5"/>
+      <c r="E301" s="17"/>
+      <c r="F301" s="20" t="s">
+        <v>1846</v>
+      </c>
       <c r="G301" s="27" t="s">
         <v>1798</v>
       </c>
-      <c r="H301" s="19"/>
+      <c r="H301" s="16"/>
     </row>
     <row r="302" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A302" s="4" t="s">
@@ -15093,10 +15151,13 @@
       <c r="E302" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F302" s="20" t="s">
+        <v>1865</v>
+      </c>
       <c r="G302" s="27" t="s">
         <v>1772</v>
       </c>
-      <c r="H302" s="19"/>
+      <c r="H302" s="16"/>
     </row>
     <row r="303" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A303" s="4" t="s">
@@ -15114,10 +15175,13 @@
       <c r="E303" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F303" s="20" t="s">
+        <v>1875</v>
+      </c>
       <c r="G303" s="27" t="s">
         <v>1588</v>
       </c>
-      <c r="H303" s="19"/>
+      <c r="H303" s="16"/>
     </row>
     <row r="304" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A304" s="4" t="s">
@@ -15135,10 +15199,13 @@
       <c r="E304" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F304" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G304" s="27" t="s">
         <v>868</v>
       </c>
-      <c r="H304" s="19"/>
+      <c r="H304" s="16"/>
     </row>
     <row r="305" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A305" s="4" t="s">
@@ -15156,10 +15223,13 @@
       <c r="E305" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F305" s="20" t="s">
+        <v>1875</v>
+      </c>
       <c r="G305" s="27" t="s">
         <v>1780</v>
       </c>
-      <c r="H305" s="19"/>
+      <c r="H305" s="16"/>
     </row>
     <row r="306" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A306" s="4" t="s">
@@ -15177,10 +15247,13 @@
       <c r="E306" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F306" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G306" s="27" t="s">
         <v>1589</v>
       </c>
-      <c r="H306" s="19"/>
+      <c r="H306" s="16"/>
     </row>
     <row r="307" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A307" s="4" t="s">
@@ -15196,10 +15269,13 @@
         <v>491</v>
       </c>
       <c r="E307" s="23"/>
+      <c r="F307" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G307" s="27" t="s">
         <v>1536</v>
       </c>
-      <c r="H307" s="19"/>
+      <c r="H307" s="16"/>
     </row>
     <row r="308" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A308" s="4" t="s">
@@ -15215,10 +15291,13 @@
         <v>491</v>
       </c>
       <c r="E308" s="23"/>
+      <c r="F308" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G308" s="27" t="s">
         <v>1610</v>
       </c>
-      <c r="H308" s="19"/>
+      <c r="H308" s="16"/>
     </row>
     <row r="309" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A309" s="4" t="s">
@@ -15234,10 +15313,13 @@
         <v>491</v>
       </c>
       <c r="E309" s="23"/>
+      <c r="F309" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G309" s="27" t="s">
         <v>1452</v>
       </c>
-      <c r="H309" s="19"/>
+      <c r="H309" s="16"/>
     </row>
     <row r="310" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A310" s="4" t="s">
@@ -15253,10 +15335,13 @@
         <v>491</v>
       </c>
       <c r="E310" s="23"/>
+      <c r="F310" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G310" s="27" t="s">
         <v>1762</v>
       </c>
-      <c r="H310" s="19"/>
+      <c r="H310" s="16"/>
     </row>
     <row r="311" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A311" s="4" t="s">
@@ -15272,10 +15357,13 @@
         <v>491</v>
       </c>
       <c r="E311" s="23"/>
+      <c r="F311" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G311" s="27" t="s">
         <v>1655</v>
       </c>
-      <c r="H311" s="19"/>
+      <c r="H311" s="16"/>
     </row>
     <row r="312" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A312" s="4" t="s">
@@ -15291,10 +15379,13 @@
         <v>491</v>
       </c>
       <c r="E312" s="23"/>
+      <c r="F312" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G312" s="27" t="s">
         <v>1797</v>
       </c>
-      <c r="H312" s="19"/>
+      <c r="H312" s="16"/>
     </row>
     <row r="313" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A313" s="4" t="s">
@@ -15310,10 +15401,13 @@
         <v>491</v>
       </c>
       <c r="E313" s="23"/>
+      <c r="F313" s="20" t="s">
+        <v>1846</v>
+      </c>
       <c r="G313" s="27" t="s">
         <v>1451</v>
       </c>
-      <c r="H313" s="19"/>
+      <c r="H313" s="16"/>
     </row>
     <row r="314" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A314" s="4" t="s">
@@ -15329,10 +15423,13 @@
         <v>491</v>
       </c>
       <c r="E314" s="23"/>
+      <c r="F314" s="20" t="s">
+        <v>1846</v>
+      </c>
       <c r="G314" s="27" t="s">
         <v>1453</v>
       </c>
-      <c r="H314" s="19"/>
+      <c r="H314" s="16"/>
     </row>
     <row r="315" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A315" s="4" t="s">
@@ -15348,10 +15445,13 @@
         <v>491</v>
       </c>
       <c r="E315" s="23"/>
+      <c r="F315" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G315" s="27" t="s">
         <v>1691</v>
       </c>
-      <c r="H315" s="19"/>
+      <c r="H315" s="16"/>
     </row>
     <row r="316" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A316" s="4" t="s">
@@ -15367,10 +15467,13 @@
         <v>491</v>
       </c>
       <c r="E316" s="23"/>
+      <c r="F316" s="20" t="s">
+        <v>1876</v>
+      </c>
       <c r="G316" s="27" t="s">
         <v>1590</v>
       </c>
-      <c r="H316" s="19"/>
+      <c r="H316" s="16"/>
     </row>
     <row r="317" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A317" s="4" t="s">
@@ -15386,10 +15489,13 @@
         <v>491</v>
       </c>
       <c r="E317" s="23"/>
+      <c r="F317" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G317" s="27" t="s">
-        <v>1824</v>
-      </c>
-      <c r="H317" s="19"/>
+        <v>1823</v>
+      </c>
+      <c r="H317" s="16"/>
     </row>
     <row r="318" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A318" s="4" t="s">
@@ -15405,10 +15511,13 @@
         <v>491</v>
       </c>
       <c r="E318" s="23"/>
+      <c r="F318" s="20" t="s">
+        <v>1870</v>
+      </c>
       <c r="G318" s="27" t="s">
         <v>1606</v>
       </c>
-      <c r="H318" s="19"/>
+      <c r="H318" s="16"/>
     </row>
     <row r="319" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A319" s="8" t="s">
@@ -15424,10 +15533,13 @@
         <v>491</v>
       </c>
       <c r="E319" s="23"/>
+      <c r="F319" s="20" t="s">
+        <v>1865</v>
+      </c>
       <c r="G319" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="H319" s="19"/>
+      <c r="H319" s="16"/>
     </row>
     <row r="320" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A320" s="10" t="s">
@@ -15443,10 +15555,13 @@
         <v>518</v>
       </c>
       <c r="E320" s="23"/>
+      <c r="F320" s="20" t="s">
+        <v>1843</v>
+      </c>
       <c r="G320" s="27" t="s">
         <v>1753</v>
       </c>
-      <c r="H320" s="19"/>
+      <c r="H320" s="16"/>
     </row>
     <row r="321" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A321" s="8" t="s">
@@ -15462,10 +15577,13 @@
         <v>491</v>
       </c>
       <c r="E321" s="23"/>
+      <c r="F321" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G321" s="27" t="s">
         <v>1468</v>
       </c>
-      <c r="H321" s="19"/>
+      <c r="H321" s="16"/>
     </row>
     <row r="322" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A322" s="8" t="s">
@@ -15481,10 +15599,13 @@
         <v>1078</v>
       </c>
       <c r="E322" s="23"/>
+      <c r="F322" s="20" t="s">
+        <v>1886</v>
+      </c>
       <c r="G322" s="27" t="s">
         <v>1559</v>
       </c>
-      <c r="H322" s="19"/>
+      <c r="H322" s="16"/>
     </row>
     <row r="323" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A323" s="2" t="s">
@@ -15499,12 +15620,14 @@
       <c r="D323" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="E323" s="24"/>
-      <c r="F323" s="5"/>
+      <c r="E323" s="17"/>
+      <c r="F323" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G323" s="27" t="s">
         <v>1591</v>
       </c>
-      <c r="H323" s="19"/>
+      <c r="H323" s="16"/>
     </row>
     <row r="324" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A324" s="4" t="s">
@@ -15522,10 +15645,13 @@
       <c r="E324" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F324" s="20" t="s">
+        <v>1871</v>
+      </c>
       <c r="G324" s="27" t="s">
         <v>1239</v>
       </c>
-      <c r="H324" s="19"/>
+      <c r="H324" s="16"/>
     </row>
     <row r="325" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A325" s="4" t="s">
@@ -15543,10 +15669,13 @@
       <c r="E325" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F325" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G325" s="27" t="s">
         <v>1592</v>
       </c>
-      <c r="H325" s="19"/>
+      <c r="H325" s="16"/>
     </row>
     <row r="326" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A326" s="4" t="s">
@@ -15562,10 +15691,13 @@
         <v>225</v>
       </c>
       <c r="E326" s="23"/>
+      <c r="F326" s="20" t="s">
+        <v>1846</v>
+      </c>
       <c r="G326" s="27" t="s">
         <v>1692</v>
       </c>
-      <c r="H326" s="19"/>
+      <c r="H326" s="16"/>
     </row>
     <row r="327" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A327" s="4" t="s">
@@ -15583,10 +15715,13 @@
       <c r="E327" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F327" s="20" t="s">
+        <v>1843</v>
+      </c>
       <c r="G327" s="27" t="s">
         <v>1594</v>
       </c>
-      <c r="H327" s="19"/>
+      <c r="H327" s="16"/>
     </row>
     <row r="328" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A328" s="4" t="s">
@@ -15602,10 +15737,13 @@
         <v>581</v>
       </c>
       <c r="E328" s="23"/>
+      <c r="F328" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G328" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="H328" s="19"/>
+      <c r="H328" s="16"/>
     </row>
     <row r="329" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A329" s="4" t="s">
@@ -15621,10 +15759,13 @@
         <v>1151</v>
       </c>
       <c r="E329" s="23"/>
+      <c r="F329" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G329" s="27" t="s">
         <v>1456</v>
       </c>
-      <c r="H329" s="19"/>
+      <c r="H329" s="16"/>
     </row>
     <row r="330" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A330" s="4" t="s">
@@ -15640,10 +15781,13 @@
         <v>1151</v>
       </c>
       <c r="E330" s="23"/>
+      <c r="F330" s="20" t="s">
+        <v>1846</v>
+      </c>
       <c r="G330" s="27" t="s">
         <v>1152</v>
       </c>
-      <c r="H330" s="19"/>
+      <c r="H330" s="16"/>
     </row>
     <row r="331" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A331" s="4" t="s">
@@ -15659,10 +15803,13 @@
         <v>1151</v>
       </c>
       <c r="E331" s="23"/>
+      <c r="F331" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G331" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="H331" s="19"/>
+      <c r="H331" s="16"/>
     </row>
     <row r="332" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A332" s="4" t="s">
@@ -15678,10 +15825,13 @@
         <v>1158</v>
       </c>
       <c r="E332" s="23"/>
+      <c r="F332" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G332" s="27" t="s">
         <v>1656</v>
       </c>
-      <c r="H332" s="19"/>
+      <c r="H332" s="16"/>
     </row>
     <row r="333" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A333" s="4" t="s">
@@ -15697,10 +15847,13 @@
         <v>1158</v>
       </c>
       <c r="E333" s="23"/>
+      <c r="F333" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G333" s="27" t="s">
         <v>1449</v>
       </c>
-      <c r="H333" s="19"/>
+      <c r="H333" s="16"/>
     </row>
     <row r="334" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A334" s="4" t="s">
@@ -15716,10 +15869,13 @@
         <v>1158</v>
       </c>
       <c r="E334" s="23"/>
+      <c r="F334" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G334" s="27" t="s">
         <v>1161</v>
       </c>
-      <c r="H334" s="19"/>
+      <c r="H334" s="16"/>
     </row>
     <row r="335" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A335" s="4" t="s">
@@ -15735,10 +15891,13 @@
         <v>1158</v>
       </c>
       <c r="E335" s="23"/>
+      <c r="F335" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G335" s="27" t="s">
         <v>1460</v>
       </c>
-      <c r="H335" s="19"/>
+      <c r="H335" s="16"/>
     </row>
     <row r="336" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A336" s="4" t="s">
@@ -15754,10 +15913,13 @@
         <v>1158</v>
       </c>
       <c r="E336" s="23"/>
+      <c r="F336" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G336" s="27" t="s">
         <v>1583</v>
       </c>
-      <c r="H336" s="19"/>
+      <c r="H336" s="16"/>
     </row>
     <row r="337" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A337" s="4" t="s">
@@ -15773,10 +15935,13 @@
         <v>1158</v>
       </c>
       <c r="E337" s="23"/>
+      <c r="F337" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G337" s="27" t="s">
         <v>1446</v>
       </c>
-      <c r="H337" s="19"/>
+      <c r="H337" s="16"/>
     </row>
     <row r="338" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A338" s="4" t="s">
@@ -15792,10 +15957,13 @@
         <v>1158</v>
       </c>
       <c r="E338" s="23"/>
+      <c r="F338" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G338" s="27" t="s">
         <v>1694</v>
       </c>
-      <c r="H338" s="19"/>
+      <c r="H338" s="16"/>
     </row>
     <row r="339" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A339" s="4" t="s">
@@ -15811,10 +15979,13 @@
         <v>1158</v>
       </c>
       <c r="E339" s="23"/>
+      <c r="F339" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G339" s="27" t="s">
         <v>1454</v>
       </c>
-      <c r="H339" s="19"/>
+      <c r="H339" s="16"/>
     </row>
     <row r="340" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A340" s="4" t="s">
@@ -15830,10 +16001,13 @@
         <v>1158</v>
       </c>
       <c r="E340" s="23"/>
+      <c r="F340" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G340" s="27" t="s">
         <v>1693</v>
       </c>
-      <c r="H340" s="19"/>
+      <c r="H340" s="16"/>
     </row>
     <row r="341" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A341" s="8" t="s">
@@ -15849,10 +16023,13 @@
         <v>1158</v>
       </c>
       <c r="E341" s="23"/>
+      <c r="F341" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G341" s="27" t="s">
         <v>1455</v>
       </c>
-      <c r="H341" s="19"/>
+      <c r="H341" s="16"/>
     </row>
     <row r="342" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A342" s="8" t="s">
@@ -15868,10 +16045,13 @@
         <v>1151</v>
       </c>
       <c r="E342" s="23"/>
+      <c r="F342" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G342" s="27" t="s">
         <v>1177</v>
       </c>
-      <c r="H342" s="19"/>
+      <c r="H342" s="16"/>
     </row>
     <row r="343" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A343" s="2" t="s">
@@ -15887,10 +16067,13 @@
         <v>298</v>
       </c>
       <c r="E343" s="23"/>
+      <c r="F343" s="20" t="s">
+        <v>1864</v>
+      </c>
       <c r="G343" s="27" t="s">
         <v>1695</v>
       </c>
-      <c r="H343" s="19"/>
+      <c r="H343" s="16"/>
     </row>
     <row r="344" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A344" s="2" t="s">
@@ -15908,11 +16091,13 @@
       <c r="E344" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F344" s="5"/>
+      <c r="F344" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G344" s="27" t="s">
         <v>1595</v>
       </c>
-      <c r="H344" s="19"/>
+      <c r="H344" s="16"/>
     </row>
     <row r="345" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A345" s="2" t="s">
@@ -15930,11 +16115,13 @@
       <c r="E345" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F345" s="5"/>
+      <c r="F345" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G345" s="27" t="s">
         <v>1371</v>
       </c>
-      <c r="H345" s="19"/>
+      <c r="H345" s="16"/>
     </row>
     <row r="346" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A346" s="10" t="s">
@@ -15950,10 +16137,13 @@
         <v>988</v>
       </c>
       <c r="E346" s="23"/>
+      <c r="F346" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G346" s="27" t="s">
         <v>1698</v>
       </c>
-      <c r="H346" s="19"/>
+      <c r="H346" s="16"/>
     </row>
     <row r="347" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A347" s="4" t="s">
@@ -15971,10 +16161,13 @@
       <c r="E347" s="23" t="s">
         <v>859</v>
       </c>
+      <c r="F347" s="20" t="s">
+        <v>1875</v>
+      </c>
       <c r="G347" s="27" t="s">
         <v>1699</v>
       </c>
-      <c r="H347" s="19"/>
+      <c r="H347" s="16"/>
     </row>
     <row r="348" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A348" s="4" t="s">
@@ -15992,10 +16185,13 @@
       <c r="E348" s="23" t="s">
         <v>859</v>
       </c>
+      <c r="F348" s="20" t="s">
+        <v>1875</v>
+      </c>
       <c r="G348" s="27" t="s">
         <v>1050</v>
       </c>
-      <c r="H348" s="19"/>
+      <c r="H348" s="16"/>
     </row>
     <row r="349" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A349" s="2" t="s">
@@ -16010,14 +16206,16 @@
       <c r="D349" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E349" s="24"/>
-      <c r="F349" s="5"/>
+      <c r="E349" s="17"/>
+      <c r="F349" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G349" s="27" t="s">
         <v>1596</v>
       </c>
-      <c r="H349" s="19"/>
-    </row>
-    <row r="350" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="H349" s="16"/>
+    </row>
+    <row r="350" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A350" s="4" t="s">
         <v>983</v>
       </c>
@@ -16033,12 +16231,15 @@
       <c r="E350" s="23" t="s">
         <v>588</v>
       </c>
+      <c r="F350" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G350" s="27" t="s">
         <v>1766</v>
       </c>
-      <c r="H350" s="19"/>
-    </row>
-    <row r="351" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="H350" s="16"/>
+    </row>
+    <row r="351" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A351" s="4" t="s">
         <v>986</v>
       </c>
@@ -16052,10 +16253,13 @@
         <v>988</v>
       </c>
       <c r="E351" s="23"/>
+      <c r="F351" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G351" s="27" t="s">
         <v>1726</v>
       </c>
-      <c r="H351" s="19"/>
+      <c r="H351" s="22"/>
     </row>
     <row r="352" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A352" s="4" t="s">
@@ -16073,10 +16277,13 @@
       <c r="E352" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F352" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G352" s="27" t="s">
-        <v>1854</v>
-      </c>
-      <c r="H352" s="19"/>
+        <v>1853</v>
+      </c>
+      <c r="H352" s="16"/>
     </row>
     <row r="353" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A353" s="2" t="s">
@@ -16091,12 +16298,14 @@
       <c r="D353" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="E353" s="24"/>
-      <c r="F353" s="5"/>
+      <c r="E353" s="17"/>
+      <c r="F353" s="20" t="s">
+        <v>1871</v>
+      </c>
       <c r="G353" s="27" t="s">
         <v>1597</v>
       </c>
-      <c r="H353" s="19"/>
+      <c r="H353" s="16"/>
     </row>
     <row r="354" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A354" s="11" t="s">
@@ -16112,10 +16321,13 @@
         <v>382</v>
       </c>
       <c r="E354" s="23"/>
+      <c r="F354" s="20" t="s">
+        <v>1837</v>
+      </c>
       <c r="G354" s="27" t="s">
-        <v>1817</v>
-      </c>
-      <c r="H354" s="19"/>
+        <v>1816</v>
+      </c>
+      <c r="H354" s="16"/>
     </row>
     <row r="355" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A355" s="8" t="s">
@@ -16131,10 +16343,13 @@
         <v>382</v>
       </c>
       <c r="E355" s="23"/>
+      <c r="F355" s="20" t="s">
+        <v>1837</v>
+      </c>
       <c r="G355" s="27" t="s">
         <v>1561</v>
       </c>
-      <c r="H355" s="19"/>
+      <c r="H355" s="16"/>
     </row>
     <row r="356" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A356" s="4" t="s">
@@ -16152,10 +16367,13 @@
       <c r="E356" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F356" s="20" t="s">
+        <v>1830</v>
+      </c>
       <c r="G356" s="27" t="s">
         <v>1782</v>
       </c>
-      <c r="H356" s="19"/>
+      <c r="H356" s="16"/>
     </row>
     <row r="357" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A357" s="4" t="s">
@@ -16173,10 +16391,13 @@
       <c r="E357" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F357" s="20" t="s">
+        <v>1843</v>
+      </c>
       <c r="G357" s="27" t="s">
         <v>875</v>
       </c>
-      <c r="H357" s="19"/>
+      <c r="H357" s="16"/>
     </row>
     <row r="358" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A358" s="4" t="s">
@@ -16194,10 +16415,13 @@
       <c r="E358" s="23" t="s">
         <v>637</v>
       </c>
+      <c r="F358" s="20" t="s">
+        <v>1837</v>
+      </c>
       <c r="G358" s="27" t="s">
         <v>1601</v>
       </c>
-      <c r="H358" s="19"/>
+      <c r="H358" s="16"/>
     </row>
     <row r="359" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A359" s="4" t="s">
@@ -16215,10 +16439,13 @@
       <c r="E359" s="23" t="s">
         <v>588</v>
       </c>
+      <c r="F359" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G359" s="27" t="s">
         <v>1778</v>
       </c>
-      <c r="H359" s="19"/>
+      <c r="H359" s="16"/>
     </row>
     <row r="360" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A360" s="4" t="s">
@@ -16236,10 +16463,13 @@
       <c r="E360" s="23" t="s">
         <v>588</v>
       </c>
+      <c r="F360" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G360" s="27" t="s">
         <v>1489</v>
       </c>
-      <c r="H360" s="19"/>
+      <c r="H360" s="16"/>
     </row>
     <row r="361" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A361" s="4" t="s">
@@ -16257,10 +16487,13 @@
       <c r="E361" s="23" t="s">
         <v>588</v>
       </c>
+      <c r="F361" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G361" s="27" t="s">
         <v>1477</v>
       </c>
-      <c r="H361" s="19"/>
+      <c r="H361" s="16"/>
     </row>
     <row r="362" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A362" s="10" t="s">
@@ -16278,10 +16511,13 @@
       <c r="E362" s="23" t="s">
         <v>588</v>
       </c>
+      <c r="F362" s="20" t="s">
+        <v>1843</v>
+      </c>
       <c r="G362" s="27" t="s">
         <v>1537</v>
       </c>
-      <c r="H362" s="19"/>
+      <c r="H362" s="16"/>
     </row>
     <row r="363" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A363" s="8" t="s">
@@ -16297,10 +16533,13 @@
         <v>855</v>
       </c>
       <c r="E363" s="23"/>
+      <c r="F363" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G363" s="27" t="s">
         <v>1700</v>
       </c>
-      <c r="H363" s="19"/>
+      <c r="H363" s="16"/>
     </row>
     <row r="364" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A364" s="4" t="s">
@@ -16316,10 +16555,13 @@
         <v>533</v>
       </c>
       <c r="E364" s="23"/>
+      <c r="F364" s="20" t="s">
+        <v>1846</v>
+      </c>
       <c r="G364" s="27" t="s">
         <v>1602</v>
       </c>
-      <c r="H364" s="19"/>
+      <c r="H364" s="16"/>
     </row>
     <row r="365" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A365" s="4" t="s">
@@ -16337,10 +16579,13 @@
       <c r="E365" s="23" t="s">
         <v>881</v>
       </c>
+      <c r="F365" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G365" s="27" t="s">
         <v>1458</v>
       </c>
-      <c r="H365" s="19"/>
+      <c r="H365" s="16"/>
     </row>
     <row r="366" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A366" s="4" t="s">
@@ -16358,10 +16603,13 @@
       <c r="E366" s="23" t="s">
         <v>637</v>
       </c>
+      <c r="F366" s="20" t="s">
+        <v>1846</v>
+      </c>
       <c r="G366" s="27" t="s">
         <v>1702</v>
       </c>
-      <c r="H366" s="19"/>
+      <c r="H366" s="16"/>
     </row>
     <row r="367" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A367" s="8" t="s">
@@ -16377,10 +16625,13 @@
         <v>408</v>
       </c>
       <c r="E367" s="23"/>
+      <c r="F367" s="21" t="s">
+        <v>1834</v>
+      </c>
       <c r="G367" s="27" t="s">
         <v>1633</v>
       </c>
-      <c r="H367" s="19"/>
+      <c r="H367" s="16"/>
     </row>
     <row r="368" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A368" s="10" t="s">
@@ -16396,10 +16647,13 @@
         <v>852</v>
       </c>
       <c r="E368" s="23"/>
+      <c r="F368" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G368" s="27" t="s">
         <v>1430</v>
       </c>
-      <c r="H368" s="19"/>
+      <c r="H368" s="16"/>
     </row>
     <row r="369" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A369" s="2" t="s">
@@ -16414,14 +16668,16 @@
       <c r="D369" s="3" t="s">
         <v>1402</v>
       </c>
-      <c r="E369" s="24" t="s">
+      <c r="E369" s="17" t="s">
         <v>1366</v>
       </c>
-      <c r="F369" s="5"/>
+      <c r="F369" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G369" s="27" t="s">
         <v>1637</v>
       </c>
-      <c r="H369" s="19"/>
+      <c r="H369" s="16"/>
     </row>
     <row r="370" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A370" s="4" t="s">
@@ -16439,10 +16695,13 @@
       <c r="E370" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F370" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G370" s="27" t="s">
         <v>1638</v>
       </c>
-      <c r="H370" s="19"/>
+      <c r="H370" s="16"/>
     </row>
     <row r="371" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A371" s="7" t="s">
@@ -16457,12 +16716,14 @@
       <c r="D371" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E371" s="24"/>
-      <c r="F371" s="5"/>
+      <c r="E371" s="17"/>
+      <c r="F371" s="20" t="s">
+        <v>1880</v>
+      </c>
       <c r="G371" s="27" t="s">
         <v>1639</v>
       </c>
-      <c r="H371" s="19"/>
+      <c r="H371" s="16"/>
     </row>
     <row r="372" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A372" s="4" t="s">
@@ -16478,10 +16739,13 @@
         <v>286</v>
       </c>
       <c r="E372" s="23"/>
+      <c r="F372" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G372" s="27" t="s">
         <v>1705</v>
       </c>
-      <c r="H372" s="19"/>
+      <c r="H372" s="16"/>
     </row>
     <row r="373" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A373" s="4" t="s">
@@ -16497,10 +16761,13 @@
         <v>344</v>
       </c>
       <c r="E373" s="23"/>
+      <c r="F373" s="20" t="s">
+        <v>1865</v>
+      </c>
       <c r="G373" s="27" t="s">
         <v>1607</v>
       </c>
-      <c r="H373" s="19"/>
+      <c r="H373" s="16"/>
     </row>
     <row r="374" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A374" s="10" t="s">
@@ -16516,10 +16783,13 @@
         <v>346</v>
       </c>
       <c r="E374" s="23"/>
+      <c r="F374" s="20" t="s">
+        <v>1839</v>
+      </c>
       <c r="G374" s="27" t="s">
         <v>1707</v>
       </c>
-      <c r="H374" s="19"/>
+      <c r="H374" s="16"/>
     </row>
     <row r="375" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A375" s="4" t="s">
@@ -16535,10 +16805,13 @@
         <v>219</v>
       </c>
       <c r="E375" s="23"/>
+      <c r="F375" s="20" t="s">
+        <v>1865</v>
+      </c>
       <c r="G375" s="27" t="s">
         <v>1535</v>
       </c>
-      <c r="H375" s="19"/>
+      <c r="H375" s="16"/>
     </row>
     <row r="376" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A376" s="4" t="s">
@@ -16554,10 +16827,13 @@
         <v>283</v>
       </c>
       <c r="E376" s="23"/>
+      <c r="F376" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G376" s="27" t="s">
         <v>1708</v>
       </c>
-      <c r="H376" s="19"/>
+      <c r="H376" s="16"/>
     </row>
     <row r="377" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A377" s="4" t="s">
@@ -16575,10 +16851,13 @@
       <c r="E377" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F377" s="20" t="s">
+        <v>1843</v>
+      </c>
       <c r="G377" s="27" t="s">
         <v>1640</v>
       </c>
-      <c r="H377" s="19"/>
+      <c r="H377" s="16"/>
     </row>
     <row r="378" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A378" s="4" t="s">
@@ -16596,10 +16875,13 @@
       <c r="E378" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F378" s="20" t="s">
+        <v>1843</v>
+      </c>
       <c r="G378" s="27" t="s">
         <v>1282</v>
       </c>
-      <c r="H378" s="19"/>
+      <c r="H378" s="16"/>
     </row>
     <row r="379" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A379" s="2" t="s">
@@ -16614,12 +16896,14 @@
       <c r="D379" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="E379" s="24"/>
-      <c r="F379" s="5"/>
+      <c r="E379" s="17"/>
+      <c r="F379" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G379" s="27" t="s">
         <v>1646</v>
       </c>
-      <c r="H379" s="19"/>
+      <c r="H379" s="16"/>
     </row>
     <row r="380" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A380" s="4" t="s">
@@ -16634,12 +16918,14 @@
       <c r="D380" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E380" s="24"/>
-      <c r="F380" s="5"/>
+      <c r="E380" s="17"/>
+      <c r="F380" s="20" t="s">
+        <v>1844</v>
+      </c>
       <c r="G380" s="27" t="s">
         <v>1783</v>
       </c>
-      <c r="H380" s="19"/>
+      <c r="H380" s="16"/>
     </row>
     <row r="381" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A381" s="4" t="s">
@@ -16657,10 +16943,13 @@
       <c r="E381" s="23" t="s">
         <v>632</v>
       </c>
+      <c r="F381" s="20" t="s">
+        <v>1849</v>
+      </c>
       <c r="G381" s="27" t="s">
         <v>1647</v>
       </c>
-      <c r="H381" s="19"/>
+      <c r="H381" s="16"/>
     </row>
     <row r="382" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A382" s="13" t="s">
@@ -16676,10 +16965,13 @@
         <v>605</v>
       </c>
       <c r="E382" s="23"/>
+      <c r="F382" s="20" t="s">
+        <v>1846</v>
+      </c>
       <c r="G382" s="27" t="s">
         <v>602</v>
       </c>
-      <c r="H382" s="19"/>
+      <c r="H382" s="16"/>
     </row>
     <row r="383" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A383" s="4" t="s">
@@ -16695,10 +16987,13 @@
         <v>605</v>
       </c>
       <c r="E383" s="23"/>
+      <c r="F383" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G383" s="27" t="s">
         <v>606</v>
       </c>
-      <c r="H383" s="19"/>
+      <c r="H383" s="16"/>
     </row>
     <row r="384" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A384" s="4" t="s">
@@ -16714,10 +17009,13 @@
         <v>601</v>
       </c>
       <c r="E384" s="23"/>
+      <c r="F384" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G384" s="27" t="s">
         <v>1459</v>
       </c>
-      <c r="H384" s="19"/>
+      <c r="H384" s="16"/>
     </row>
     <row r="385" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A385" s="8" t="s">
@@ -16733,10 +17031,13 @@
         <v>1182</v>
       </c>
       <c r="E385" s="23"/>
+      <c r="F385" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G385" s="27" t="s">
         <v>1648</v>
       </c>
-      <c r="H385" s="19"/>
+      <c r="H385" s="16"/>
     </row>
     <row r="386" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A386" s="4" t="s">
@@ -16752,10 +17053,13 @@
         <v>222</v>
       </c>
       <c r="E386" s="23"/>
+      <c r="F386" s="20" t="s">
+        <v>1871</v>
+      </c>
       <c r="G386" s="27" t="s">
         <v>1580</v>
       </c>
-      <c r="H386" s="19"/>
+      <c r="H386" s="16"/>
     </row>
     <row r="387" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A387" s="4" t="s">
@@ -16771,10 +17075,13 @@
         <v>1327</v>
       </c>
       <c r="E387" s="23"/>
+      <c r="F387" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G387" s="27" t="s">
         <v>1651</v>
       </c>
-      <c r="H387" s="19"/>
+      <c r="H387" s="16"/>
     </row>
     <row r="388" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A388" s="4" t="s">
@@ -16790,10 +17097,13 @@
         <v>1330</v>
       </c>
       <c r="E388" s="23"/>
+      <c r="F388" s="20" t="s">
+        <v>1842</v>
+      </c>
       <c r="G388" s="27" t="s">
         <v>1650</v>
       </c>
-      <c r="H388" s="19"/>
+      <c r="H388" s="16"/>
     </row>
     <row r="389" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A389" s="4" t="s">
@@ -16809,10 +17119,13 @@
         <v>1330</v>
       </c>
       <c r="E389" s="23"/>
+      <c r="F389" s="20" t="s">
+        <v>1842</v>
+      </c>
       <c r="G389" s="27" t="s">
         <v>1649</v>
       </c>
-      <c r="H389" s="19"/>
+      <c r="H389" s="16"/>
     </row>
     <row r="390" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A390" s="8" t="s">
@@ -16828,10 +17141,13 @@
         <v>431</v>
       </c>
       <c r="E390" s="23"/>
+      <c r="F390" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G390" s="27" t="s">
         <v>1711</v>
       </c>
-      <c r="H390" s="19"/>
+      <c r="H390" s="16"/>
     </row>
     <row r="391" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A391" s="4" t="s">
@@ -16846,12 +17162,14 @@
       <c r="D391" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E391" s="24"/>
-      <c r="F391" s="5"/>
+      <c r="E391" s="17"/>
+      <c r="F391" s="20" t="s">
+        <v>1844</v>
+      </c>
       <c r="G391" s="27" t="s">
         <v>1476</v>
       </c>
-      <c r="H391" s="19"/>
+      <c r="H391" s="16"/>
     </row>
     <row r="392" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A392" s="4" t="s">
@@ -16866,12 +17184,14 @@
       <c r="D392" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="E392" s="24"/>
-      <c r="F392" s="5"/>
+      <c r="E392" s="17"/>
+      <c r="F392" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G392" s="27" t="s">
         <v>1712</v>
       </c>
-      <c r="H392" s="19"/>
+      <c r="H392" s="16"/>
     </row>
     <row r="393" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A393" s="4" t="s">
@@ -16887,10 +17207,13 @@
         <v>544</v>
       </c>
       <c r="E393" s="23"/>
+      <c r="F393" s="20" t="s">
+        <v>1837</v>
+      </c>
       <c r="G393" s="27" t="s">
         <v>1713</v>
       </c>
-      <c r="H393" s="19"/>
+      <c r="H393" s="16"/>
     </row>
     <row r="394" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A394" s="4" t="s">
@@ -16906,10 +17229,13 @@
         <v>544</v>
       </c>
       <c r="E394" s="23"/>
+      <c r="F394" s="20" t="s">
+        <v>1837</v>
+      </c>
       <c r="G394" s="27" t="s">
         <v>1714</v>
       </c>
-      <c r="H394" s="19"/>
+      <c r="H394" s="16"/>
     </row>
     <row r="395" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A395" s="4" t="s">
@@ -16925,10 +17251,13 @@
         <v>544</v>
       </c>
       <c r="E395" s="23"/>
+      <c r="F395" s="20" t="s">
+        <v>1837</v>
+      </c>
       <c r="G395" s="27" t="s">
         <v>1718</v>
       </c>
-      <c r="H395" s="19"/>
+      <c r="H395" s="16"/>
     </row>
     <row r="396" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A396" s="4" t="s">
@@ -16944,10 +17273,13 @@
         <v>544</v>
       </c>
       <c r="E396" s="23"/>
+      <c r="F396" s="20" t="s">
+        <v>1837</v>
+      </c>
       <c r="G396" s="27" t="s">
         <v>1715</v>
       </c>
-      <c r="H396" s="19"/>
+      <c r="H396" s="16"/>
     </row>
     <row r="397" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A397" s="4" t="s">
@@ -16963,10 +17295,13 @@
         <v>544</v>
       </c>
       <c r="E397" s="23"/>
+      <c r="F397" s="20" t="s">
+        <v>1837</v>
+      </c>
       <c r="G397" s="27" t="s">
         <v>1716</v>
       </c>
-      <c r="H397" s="19"/>
+      <c r="H397" s="16"/>
     </row>
     <row r="398" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A398" s="4" t="s">
@@ -16982,10 +17317,13 @@
         <v>544</v>
       </c>
       <c r="E398" s="23"/>
+      <c r="F398" s="20" t="s">
+        <v>1837</v>
+      </c>
       <c r="G398" s="27" t="s">
         <v>1719</v>
       </c>
-      <c r="H398" s="19"/>
+      <c r="H398" s="16"/>
     </row>
     <row r="399" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A399" s="4" t="s">
@@ -17001,10 +17339,13 @@
         <v>544</v>
       </c>
       <c r="E399" s="23"/>
+      <c r="F399" s="20" t="s">
+        <v>1837</v>
+      </c>
       <c r="G399" s="27" t="s">
         <v>1717</v>
       </c>
-      <c r="H399" s="19"/>
+      <c r="H399" s="16"/>
     </row>
     <row r="400" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A400" s="4" t="s">
@@ -17020,10 +17361,13 @@
         <v>544</v>
       </c>
       <c r="E400" s="23"/>
+      <c r="F400" s="20" t="s">
+        <v>1837</v>
+      </c>
       <c r="G400" s="27" t="s">
         <v>1720</v>
       </c>
-      <c r="H400" s="19"/>
+      <c r="H400" s="16"/>
     </row>
     <row r="401" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A401" s="4" t="s">
@@ -17039,10 +17383,13 @@
         <v>544</v>
       </c>
       <c r="E401" s="23"/>
+      <c r="F401" s="20" t="s">
+        <v>1837</v>
+      </c>
       <c r="G401" s="27" t="s">
         <v>1611</v>
       </c>
-      <c r="H401" s="19"/>
+      <c r="H401" s="16"/>
     </row>
     <row r="402" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A402" s="4" t="s">
@@ -17058,10 +17405,13 @@
         <v>544</v>
       </c>
       <c r="E402" s="23"/>
+      <c r="F402" s="20" t="s">
+        <v>1837</v>
+      </c>
       <c r="G402" s="27" t="s">
         <v>1721</v>
       </c>
-      <c r="H402" s="19"/>
+      <c r="H402" s="16"/>
     </row>
     <row r="403" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A403" s="8" t="s">
@@ -17077,10 +17427,13 @@
         <v>565</v>
       </c>
       <c r="E403" s="23"/>
+      <c r="F403" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G403" s="27" t="s">
         <v>1722</v>
       </c>
-      <c r="H403" s="19"/>
+      <c r="H403" s="16"/>
     </row>
     <row r="404" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A404" s="10" t="s">
@@ -17096,10 +17449,13 @@
         <v>565</v>
       </c>
       <c r="E404" s="23"/>
+      <c r="F404" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G404" s="27" t="s">
         <v>1723</v>
       </c>
-      <c r="H404" s="19"/>
+      <c r="H404" s="16"/>
     </row>
     <row r="405" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A405" s="4" t="s">
@@ -17114,12 +17470,14 @@
       <c r="D405" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="E405" s="24"/>
-      <c r="F405" s="5"/>
+      <c r="E405" s="17"/>
+      <c r="F405" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G405" s="27" t="s">
         <v>1581</v>
       </c>
-      <c r="H405" s="19"/>
+      <c r="H405" s="16"/>
     </row>
     <row r="406" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A406" s="7" t="s">
@@ -17134,12 +17492,14 @@
       <c r="D406" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E406" s="24"/>
-      <c r="F406" s="5"/>
+      <c r="E406" s="17"/>
+      <c r="F406" s="20" t="s">
+        <v>1839</v>
+      </c>
       <c r="G406" s="27" t="s">
         <v>1652</v>
       </c>
-      <c r="H406" s="19"/>
+      <c r="H406" s="16"/>
     </row>
     <row r="407" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A407" s="4" t="s">
@@ -17157,10 +17517,13 @@
       <c r="E407" s="23" t="s">
         <v>637</v>
       </c>
+      <c r="F407" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G407" s="27" t="s">
         <v>1069</v>
       </c>
-      <c r="H407" s="19"/>
+      <c r="H407" s="16"/>
     </row>
     <row r="408" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A408" s="4" t="s">
@@ -17178,10 +17541,13 @@
       <c r="E408" s="23" t="s">
         <v>859</v>
       </c>
+      <c r="F408" s="20" t="s">
+        <v>1846</v>
+      </c>
       <c r="G408" s="27" t="s">
         <v>1043</v>
       </c>
-      <c r="H408" s="19"/>
+      <c r="H408" s="16"/>
     </row>
     <row r="409" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A409" s="8" t="s">
@@ -17197,10 +17563,13 @@
         <v>424</v>
       </c>
       <c r="E409" s="23"/>
+      <c r="F409" s="20" t="s">
+        <v>1842</v>
+      </c>
       <c r="G409" s="27" t="s">
         <v>1653</v>
       </c>
-      <c r="H409" s="19"/>
+      <c r="H409" s="16"/>
     </row>
     <row r="410" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A410" s="7" t="s">
@@ -17215,12 +17584,14 @@
       <c r="D410" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E410" s="24"/>
-      <c r="F410" s="5"/>
+      <c r="E410" s="17"/>
+      <c r="F410" s="20" t="s">
+        <v>1881</v>
+      </c>
       <c r="G410" s="27" t="s">
-        <v>1814</v>
-      </c>
-      <c r="H410" s="19"/>
+        <v>1813</v>
+      </c>
+      <c r="H410" s="16"/>
     </row>
     <row r="411" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A411" s="7" t="s">
@@ -17235,12 +17606,14 @@
       <c r="D411" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E411" s="24"/>
-      <c r="F411" s="5"/>
+      <c r="E411" s="17"/>
+      <c r="F411" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G411" s="27" t="s">
         <v>1724</v>
       </c>
-      <c r="H411" s="19"/>
+      <c r="H411" s="16"/>
     </row>
     <row r="412" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A412" s="2" t="s">
@@ -17255,12 +17628,14 @@
       <c r="D412" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E412" s="24"/>
-      <c r="F412" s="5"/>
+      <c r="E412" s="17"/>
+      <c r="F412" s="20" t="s">
+        <v>1843</v>
+      </c>
       <c r="G412" s="27" t="s">
         <v>1654</v>
       </c>
-      <c r="H412" s="19"/>
+      <c r="H412" s="16"/>
     </row>
     <row r="413" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A413" s="2" t="s">
@@ -17275,12 +17650,14 @@
       <c r="D413" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E413" s="24"/>
-      <c r="F413" s="5"/>
+      <c r="E413" s="17"/>
+      <c r="F413" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G413" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="H413" s="19"/>
+      <c r="H413" s="16"/>
     </row>
     <row r="414" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A414" s="7" t="s">
@@ -17295,12 +17672,14 @@
       <c r="D414" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E414" s="24"/>
-      <c r="F414" s="5"/>
+      <c r="E414" s="17"/>
+      <c r="F414" s="20" t="s">
+        <v>1881</v>
+      </c>
       <c r="G414" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="H414" s="19"/>
+      <c r="H414" s="16"/>
     </row>
     <row r="415" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A415" s="7" t="s">
@@ -17315,12 +17694,14 @@
       <c r="D415" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E415" s="24"/>
-      <c r="F415" s="5"/>
+      <c r="E415" s="17"/>
+      <c r="F415" s="20" t="s">
+        <v>1882</v>
+      </c>
       <c r="G415" s="27" t="s">
         <v>1696</v>
       </c>
-      <c r="H415" s="19"/>
+      <c r="H415" s="16"/>
     </row>
     <row r="416" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A416" s="2" t="s">
@@ -17335,12 +17716,14 @@
       <c r="D416" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E416" s="24"/>
-      <c r="F416" s="5"/>
+      <c r="E416" s="17"/>
+      <c r="F416" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G416" s="27" t="s">
         <v>1666</v>
       </c>
-      <c r="H416" s="19"/>
+      <c r="H416" s="16"/>
     </row>
     <row r="417" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A417" s="7" t="s">
@@ -17355,12 +17738,14 @@
       <c r="D417" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="E417" s="24"/>
-      <c r="F417" s="5"/>
+      <c r="E417" s="17"/>
+      <c r="F417" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G417" s="27" t="s">
         <v>1725</v>
       </c>
-      <c r="H417" s="19"/>
+      <c r="H417" s="16"/>
     </row>
     <row r="418" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A418" s="10" t="s">
@@ -17376,10 +17761,13 @@
         <v>327</v>
       </c>
       <c r="E418" s="23"/>
+      <c r="F418" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G418" s="27" t="s">
         <v>1461</v>
       </c>
-      <c r="H418" s="19"/>
+      <c r="H418" s="16"/>
     </row>
     <row r="419" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A419" s="2" t="s">
@@ -17394,12 +17782,14 @@
       <c r="D419" s="3" t="s">
         <v>1422</v>
       </c>
-      <c r="E419" s="24"/>
-      <c r="F419" s="5"/>
+      <c r="E419" s="17"/>
+      <c r="F419" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G419" s="27" t="s">
         <v>1462</v>
       </c>
-      <c r="H419" s="19"/>
+      <c r="H419" s="16"/>
     </row>
     <row r="420" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A420" s="4" t="s">
@@ -17417,10 +17807,13 @@
       <c r="E420" s="23" t="s">
         <v>859</v>
       </c>
+      <c r="F420" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G420" s="27" t="s">
         <v>856</v>
       </c>
-      <c r="H420" s="19"/>
+      <c r="H420" s="16"/>
     </row>
     <row r="421" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A421" s="4" t="s">
@@ -17436,10 +17829,13 @@
         <v>598</v>
       </c>
       <c r="E421" s="23"/>
+      <c r="F421" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G421" s="27" t="s">
         <v>1463</v>
       </c>
-      <c r="H421" s="19"/>
+      <c r="H421" s="16"/>
     </row>
     <row r="422" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A422" s="11" t="s">
@@ -17455,10 +17851,13 @@
         <v>465</v>
       </c>
       <c r="E422" s="23"/>
+      <c r="F422" s="20" t="s">
+        <v>1867</v>
+      </c>
       <c r="G422" s="27" t="s">
         <v>1767</v>
       </c>
-      <c r="H422" s="19"/>
+      <c r="H422" s="16"/>
     </row>
     <row r="423" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A423" s="4" t="s">
@@ -17476,10 +17875,13 @@
       <c r="E423" s="23" t="s">
         <v>637</v>
       </c>
+      <c r="F423" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G423" s="27" t="s">
         <v>1020</v>
       </c>
-      <c r="H423" s="19"/>
+      <c r="H423" s="16"/>
     </row>
     <row r="424" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A424" s="2" t="s">
@@ -17495,10 +17897,13 @@
         <v>405</v>
       </c>
       <c r="E424" s="23"/>
+      <c r="F424" s="20" t="s">
+        <v>1846</v>
+      </c>
       <c r="G424" s="27" t="s">
         <v>1608</v>
       </c>
-      <c r="H424" s="19"/>
+      <c r="H424" s="16"/>
     </row>
     <row r="425" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A425" s="4" t="s">
@@ -17516,10 +17921,13 @@
       <c r="E425" s="23" t="s">
         <v>637</v>
       </c>
+      <c r="F425" s="20" t="s">
+        <v>1883</v>
+      </c>
       <c r="G425" s="27" t="s">
         <v>1008</v>
       </c>
-      <c r="H425" s="19"/>
+      <c r="H425" s="16"/>
     </row>
     <row r="426" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A426" s="4" t="s">
@@ -17535,10 +17943,13 @@
         <v>863</v>
       </c>
       <c r="E426" s="23"/>
+      <c r="F426" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G426" s="27" t="s">
         <v>1774</v>
       </c>
-      <c r="H426" s="19"/>
+      <c r="H426" s="16"/>
     </row>
     <row r="427" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A427" s="4" t="s">
@@ -17556,10 +17967,13 @@
       <c r="E427" s="23" t="s">
         <v>637</v>
       </c>
+      <c r="F427" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G427" s="27" t="s">
         <v>1770</v>
       </c>
-      <c r="H427" s="19"/>
+      <c r="H427" s="16"/>
     </row>
     <row r="428" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A428" s="4" t="s">
@@ -17575,10 +17989,13 @@
         <v>279</v>
       </c>
       <c r="E428" s="23"/>
+      <c r="F428" s="20" t="s">
+        <v>1843</v>
+      </c>
       <c r="G428" s="27" t="s">
         <v>1643</v>
       </c>
-      <c r="H428" s="19"/>
+      <c r="H428" s="16"/>
     </row>
     <row r="429" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A429" s="4" t="s">
@@ -17594,10 +18011,13 @@
         <v>281</v>
       </c>
       <c r="E429" s="23"/>
+      <c r="F429" s="20" t="s">
+        <v>1834</v>
+      </c>
       <c r="G429" s="27" t="s">
-        <v>1820</v>
-      </c>
-      <c r="H429" s="19"/>
+        <v>1819</v>
+      </c>
+      <c r="H429" s="16"/>
     </row>
     <row r="430" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A430" s="4" t="s">
@@ -17613,10 +18033,13 @@
         <v>539</v>
       </c>
       <c r="E430" s="23"/>
+      <c r="F430" s="20" t="s">
+        <v>1838</v>
+      </c>
       <c r="G430" s="27" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H430" s="19"/>
+        <v>1854</v>
+      </c>
+      <c r="H430" s="16"/>
     </row>
     <row r="431" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A431" s="8" t="s">
@@ -17632,10 +18055,13 @@
         <v>434</v>
       </c>
       <c r="E431" s="23"/>
+      <c r="F431" s="20" t="s">
+        <v>1832</v>
+      </c>
       <c r="G431" s="27" t="s">
         <v>1570</v>
       </c>
-      <c r="H431" s="19"/>
+      <c r="H431" s="16"/>
     </row>
     <row r="432" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A432" s="4" t="s">
@@ -17653,10 +18079,13 @@
       <c r="E432" s="23" t="s">
         <v>637</v>
       </c>
+      <c r="F432" s="20" t="s">
+        <v>1875</v>
+      </c>
       <c r="G432" s="27" t="s">
         <v>945</v>
       </c>
-      <c r="H432" s="19"/>
+      <c r="H432" s="16"/>
     </row>
     <row r="433" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A433" s="4" t="s">
@@ -17674,10 +18103,13 @@
       <c r="E433" s="23" t="s">
         <v>637</v>
       </c>
+      <c r="F433" s="20" t="s">
+        <v>1875</v>
+      </c>
       <c r="G433" s="27" t="s">
         <v>948</v>
       </c>
-      <c r="H433" s="19"/>
+      <c r="H433" s="16"/>
     </row>
     <row r="434" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A434" s="4" t="s">
@@ -17695,10 +18127,13 @@
       <c r="E434" s="23" t="s">
         <v>637</v>
       </c>
+      <c r="F434" s="20" t="s">
+        <v>1875</v>
+      </c>
       <c r="G434" s="27" t="s">
         <v>950</v>
       </c>
-      <c r="H434" s="19"/>
+      <c r="H434" s="16"/>
     </row>
     <row r="435" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A435" s="4" t="s">
@@ -17716,10 +18151,13 @@
       <c r="E435" s="23" t="s">
         <v>637</v>
       </c>
+      <c r="F435" s="20" t="s">
+        <v>1875</v>
+      </c>
       <c r="G435" s="27" t="s">
         <v>952</v>
       </c>
-      <c r="H435" s="19"/>
+      <c r="H435" s="16"/>
     </row>
     <row r="436" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A436" s="4" t="s">
@@ -17737,11 +18175,13 @@
       <c r="E436" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F436" s="4"/>
-      <c r="G436" s="28" t="s">
-        <v>1800</v>
-      </c>
-      <c r="H436" s="19"/>
+      <c r="F436" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G436" s="19" t="s">
+        <v>1799</v>
+      </c>
+      <c r="H436" s="16"/>
     </row>
     <row r="437" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A437" s="4" t="s">
@@ -17759,11 +18199,13 @@
       <c r="E437" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F437" s="4"/>
-      <c r="G437" s="28" t="s">
+      <c r="F437" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G437" s="19" t="s">
         <v>956</v>
       </c>
-      <c r="H437" s="19"/>
+      <c r="H437" s="16"/>
     </row>
     <row r="438" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A438" s="4" t="s">
@@ -17781,11 +18223,13 @@
       <c r="E438" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F438" s="4"/>
-      <c r="G438" s="28" t="s">
+      <c r="F438" s="20" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G438" s="19" t="s">
         <v>1571</v>
       </c>
-      <c r="H438" s="19"/>
+      <c r="H438" s="16"/>
     </row>
     <row r="439" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A439" s="10" t="s">
@@ -17801,11 +18245,13 @@
         <v>947</v>
       </c>
       <c r="E439" s="23"/>
-      <c r="F439" s="4"/>
-      <c r="G439" s="28" t="s">
+      <c r="F439" s="20" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G439" s="19" t="s">
         <v>1562</v>
       </c>
-      <c r="H439" s="19"/>
+      <c r="H439" s="16"/>
     </row>
     <row r="440" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A440" s="10" t="s">
@@ -17821,11 +18267,13 @@
         <v>402</v>
       </c>
       <c r="E440" s="23"/>
-      <c r="F440" s="4"/>
-      <c r="G440" s="28" t="s">
+      <c r="F440" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G440" s="19" t="s">
         <v>1769</v>
       </c>
-      <c r="H440" s="19"/>
+      <c r="H440" s="16"/>
     </row>
     <row r="441" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A441" s="4" t="s">
@@ -17841,11 +18289,13 @@
         <v>164</v>
       </c>
       <c r="E441" s="23"/>
-      <c r="F441" s="4"/>
-      <c r="G441" s="28" t="s">
+      <c r="F441" s="20" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G441" s="19" t="s">
         <v>1728</v>
       </c>
-      <c r="H441" s="19"/>
+      <c r="H441" s="16"/>
     </row>
     <row r="442" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A442" s="4" t="s">
@@ -17861,11 +18311,13 @@
         <v>164</v>
       </c>
       <c r="E442" s="23"/>
-      <c r="F442" s="4"/>
-      <c r="G442" s="28" t="s">
-        <v>1813</v>
-      </c>
-      <c r="H442" s="19"/>
+      <c r="F442" s="20" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G442" s="19" t="s">
+        <v>1812</v>
+      </c>
+      <c r="H442" s="16"/>
     </row>
     <row r="443" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A443" s="4" t="s">
@@ -17881,11 +18333,13 @@
         <v>164</v>
       </c>
       <c r="E443" s="23"/>
-      <c r="F443" s="4"/>
-      <c r="G443" s="28" t="s">
+      <c r="F443" s="20" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G443" s="19" t="s">
         <v>1777</v>
       </c>
-      <c r="H443" s="19"/>
+      <c r="H443" s="16"/>
     </row>
     <row r="444" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A444" s="4" t="s">
@@ -17901,11 +18355,13 @@
         <v>164</v>
       </c>
       <c r="E444" s="23"/>
-      <c r="F444" s="4"/>
-      <c r="G444" s="28" t="s">
+      <c r="F444" s="20" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G444" s="19" t="s">
         <v>1727</v>
       </c>
-      <c r="H444" s="19"/>
+      <c r="H444" s="16"/>
     </row>
     <row r="445" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A445" s="4" t="s">
@@ -17921,11 +18377,13 @@
         <v>164</v>
       </c>
       <c r="E445" s="23"/>
-      <c r="F445" s="4"/>
-      <c r="G445" s="28" t="s">
+      <c r="F445" s="20" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G445" s="19" t="s">
         <v>1704</v>
       </c>
-      <c r="H445" s="19"/>
+      <c r="H445" s="16"/>
     </row>
     <row r="446" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A446" s="4" t="s">
@@ -17941,11 +18399,13 @@
         <v>164</v>
       </c>
       <c r="E446" s="23"/>
-      <c r="F446" s="4"/>
-      <c r="G446" s="28" t="s">
-        <v>1813</v>
-      </c>
-      <c r="H446" s="19"/>
+      <c r="F446" s="20" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G446" s="19" t="s">
+        <v>1812</v>
+      </c>
+      <c r="H446" s="16"/>
     </row>
     <row r="447" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A447" s="4" t="s">
@@ -17961,11 +18421,13 @@
         <v>164</v>
       </c>
       <c r="E447" s="23"/>
-      <c r="F447" s="4"/>
-      <c r="G447" s="28" t="s">
+      <c r="F447" s="20" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G447" s="19" t="s">
         <v>1728</v>
       </c>
-      <c r="H447" s="19"/>
+      <c r="H447" s="16"/>
     </row>
     <row r="448" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A448" s="4" t="s">
@@ -17981,11 +18443,13 @@
         <v>323</v>
       </c>
       <c r="E448" s="23"/>
-      <c r="F448" s="4"/>
-      <c r="G448" s="28" t="s">
+      <c r="F448" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G448" s="19" t="s">
         <v>1779</v>
       </c>
-      <c r="H448" s="19"/>
+      <c r="H448" s="16"/>
     </row>
     <row r="449" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A449" s="4" t="s">
@@ -18001,11 +18465,13 @@
         <v>471</v>
       </c>
       <c r="E449" s="23"/>
-      <c r="F449" s="4"/>
-      <c r="G449" s="28" t="s">
+      <c r="F449" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G449" s="19" t="s">
         <v>1467</v>
       </c>
-      <c r="H449" s="19"/>
+      <c r="H449" s="16"/>
     </row>
     <row r="450" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A450" s="4" t="s">
@@ -18023,11 +18489,13 @@
       <c r="E450" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F450" s="4"/>
-      <c r="G450" s="28" t="s">
+      <c r="F450" s="20" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G450" s="19" t="s">
         <v>962</v>
       </c>
-      <c r="H450" s="19"/>
+      <c r="H450" s="16"/>
     </row>
     <row r="451" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A451" s="4" t="s">
@@ -18045,11 +18513,13 @@
       <c r="E451" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F451" s="4"/>
-      <c r="G451" s="28" t="s">
+      <c r="F451" s="20" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G451" s="19" t="s">
         <v>1784</v>
       </c>
-      <c r="H451" s="19"/>
+      <c r="H451" s="16"/>
     </row>
     <row r="452" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A452" s="4" t="s">
@@ -18065,11 +18535,13 @@
         <v>965</v>
       </c>
       <c r="E452" s="23"/>
-      <c r="F452" s="4"/>
-      <c r="G452" s="28" t="s">
+      <c r="F452" s="20" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G452" s="19" t="s">
         <v>1645</v>
       </c>
-      <c r="H452" s="19"/>
+      <c r="H452" s="16"/>
     </row>
     <row r="453" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A453" s="4" t="s">
@@ -18085,11 +18557,13 @@
         <v>188</v>
       </c>
       <c r="E453" s="23"/>
-      <c r="F453" s="4"/>
-      <c r="G453" s="28" t="s">
+      <c r="F453" s="20" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G453" s="19" t="s">
         <v>1785</v>
       </c>
-      <c r="H453" s="19"/>
+      <c r="H453" s="16"/>
     </row>
     <row r="454" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A454" s="8" t="s">
@@ -18105,11 +18579,13 @@
         <v>304</v>
       </c>
       <c r="E454" s="23"/>
-      <c r="F454" s="4"/>
-      <c r="G454" s="28" t="s">
+      <c r="F454" s="20" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G454" s="19" t="s">
         <v>1786</v>
       </c>
-      <c r="H454" s="19"/>
+      <c r="H454" s="16"/>
     </row>
     <row r="455" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A455" s="2" t="s">
@@ -18125,11 +18601,13 @@
         <v>331</v>
       </c>
       <c r="E455" s="23"/>
-      <c r="F455" s="4"/>
-      <c r="G455" s="28" t="s">
+      <c r="F455" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G455" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="H455" s="19"/>
+      <c r="H455" s="16"/>
     </row>
     <row r="456" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A456" s="2" t="s">
@@ -18144,11 +18622,14 @@
       <c r="D456" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E456" s="24"/>
-      <c r="G456" s="28" t="s">
+      <c r="E456" s="17"/>
+      <c r="F456" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G456" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="H456" s="19"/>
+      <c r="H456" s="16"/>
     </row>
     <row r="457" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A457" s="2" t="s">
@@ -18163,11 +18644,14 @@
       <c r="D457" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E457" s="24"/>
-      <c r="G457" s="28" t="s">
+      <c r="E457" s="17"/>
+      <c r="F457" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G457" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="H457" s="19"/>
+      <c r="H457" s="16"/>
     </row>
     <row r="458" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A458" s="2" t="s">
@@ -18182,11 +18666,14 @@
       <c r="D458" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E458" s="24"/>
-      <c r="G458" s="28" t="s">
+      <c r="E458" s="17"/>
+      <c r="F458" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G458" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="H458" s="19"/>
+      <c r="H458" s="16"/>
     </row>
     <row r="459" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A459" s="4" t="s">
@@ -18202,11 +18689,13 @@
         <v>237</v>
       </c>
       <c r="E459" s="23"/>
-      <c r="F459" s="4"/>
-      <c r="G459" s="28" t="s">
+      <c r="F459" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G459" s="19" t="s">
         <v>1788</v>
       </c>
-      <c r="H459" s="19"/>
+      <c r="H459" s="16"/>
     </row>
     <row r="460" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A460" s="4" t="s">
@@ -18222,11 +18711,13 @@
         <v>393</v>
       </c>
       <c r="E460" s="23"/>
-      <c r="F460" s="4"/>
-      <c r="G460" s="28" t="s">
+      <c r="F460" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G460" s="19" t="s">
         <v>1790</v>
       </c>
-      <c r="H460" s="19"/>
+      <c r="H460" s="16"/>
     </row>
     <row r="461" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A461" s="10" t="s">
@@ -18242,11 +18733,13 @@
         <v>396</v>
       </c>
       <c r="E461" s="23"/>
-      <c r="F461" s="4"/>
-      <c r="G461" s="28" t="s">
+      <c r="F461" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G461" s="19" t="s">
         <v>1789</v>
       </c>
-      <c r="H461" s="19"/>
+      <c r="H461" s="16"/>
     </row>
     <row r="462" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A462" s="4" t="s">
@@ -18262,11 +18755,13 @@
         <v>648</v>
       </c>
       <c r="E462" s="23"/>
-      <c r="F462" s="4"/>
-      <c r="G462" s="28" t="s">
+      <c r="F462" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G462" s="19" t="s">
         <v>1791</v>
       </c>
-      <c r="H462" s="19"/>
+      <c r="H462" s="16"/>
     </row>
     <row r="463" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A463" s="7" t="s">
@@ -18281,11 +18776,14 @@
       <c r="D463" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E463" s="24"/>
-      <c r="G463" s="28" t="s">
+      <c r="E463" s="17"/>
+      <c r="F463" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G463" s="19" t="s">
         <v>1792</v>
       </c>
-      <c r="H463" s="19"/>
+      <c r="H463" s="16"/>
     </row>
     <row r="464" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A464" s="4" t="s">
@@ -18300,11 +18798,14 @@
       <c r="D464" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E464" s="24"/>
-      <c r="G464" s="28" t="s">
+      <c r="E464" s="17"/>
+      <c r="F464" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G464" s="19" t="s">
         <v>1730</v>
       </c>
-      <c r="H464" s="19"/>
+      <c r="H464" s="16"/>
     </row>
     <row r="465" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A465" s="4" t="s">
@@ -18320,11 +18821,13 @@
         <v>1007</v>
       </c>
       <c r="E465" s="23"/>
-      <c r="F465" s="4"/>
-      <c r="G465" s="28" t="s">
+      <c r="F465" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G465" s="19" t="s">
         <v>1731</v>
       </c>
-      <c r="H465" s="19"/>
+      <c r="H465" s="16"/>
     </row>
     <row r="466" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A466" s="8" t="s">
@@ -18340,11 +18843,13 @@
         <v>428</v>
       </c>
       <c r="E466" s="23"/>
-      <c r="F466" s="4"/>
-      <c r="G466" s="28" t="s">
+      <c r="F466" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G466" s="19" t="s">
         <v>1564</v>
       </c>
-      <c r="H466" s="19"/>
+      <c r="H466" s="16"/>
     </row>
     <row r="467" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A467" s="4" t="s">
@@ -18360,11 +18865,13 @@
         <v>1138</v>
       </c>
       <c r="E467" s="23"/>
-      <c r="F467" s="4"/>
-      <c r="G467" s="28" t="s">
+      <c r="F467" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G467" s="19" t="s">
         <v>1732</v>
       </c>
-      <c r="H467" s="19"/>
+      <c r="H467" s="16"/>
     </row>
     <row r="468" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A468" s="4" t="s">
@@ -18382,11 +18889,13 @@
       <c r="E468" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F468" s="4"/>
-      <c r="G468" s="28" t="s">
+      <c r="F468" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G468" s="19" t="s">
         <v>1793</v>
       </c>
-      <c r="H468" s="19"/>
+      <c r="H468" s="16"/>
     </row>
     <row r="469" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A469" s="4" t="s">
@@ -18404,11 +18913,13 @@
       <c r="E469" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F469" s="4"/>
-      <c r="G469" s="28" t="s">
+      <c r="F469" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G469" s="19" t="s">
         <v>1262</v>
       </c>
-      <c r="H469" s="19"/>
+      <c r="H469" s="16"/>
     </row>
     <row r="470" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A470" s="4" t="s">
@@ -18426,11 +18937,13 @@
       <c r="E470" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F470" s="4"/>
-      <c r="G470" s="28" t="s">
+      <c r="F470" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G470" s="19" t="s">
         <v>1264</v>
       </c>
-      <c r="H470" s="19"/>
+      <c r="H470" s="16"/>
     </row>
     <row r="471" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A471" s="4" t="s">
@@ -18448,11 +18961,13 @@
       <c r="E471" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F471" s="4"/>
-      <c r="G471" s="28" t="s">
+      <c r="F471" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G471" s="19" t="s">
         <v>1266</v>
       </c>
-      <c r="H471" s="19"/>
+      <c r="H471" s="16"/>
     </row>
     <row r="472" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A472" s="4" t="s">
@@ -18470,11 +18985,13 @@
       <c r="E472" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F472" s="4"/>
-      <c r="G472" s="28" t="s">
+      <c r="F472" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G472" s="19" t="s">
         <v>1268</v>
       </c>
-      <c r="H472" s="19"/>
+      <c r="H472" s="16"/>
     </row>
     <row r="473" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A473" s="4" t="s">
@@ -18492,11 +19009,13 @@
       <c r="E473" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F473" s="4"/>
-      <c r="G473" s="28" t="s">
+      <c r="F473" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G473" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="H473" s="19"/>
+      <c r="H473" s="16"/>
     </row>
     <row r="474" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A474" s="4" t="s">
@@ -18514,11 +19033,13 @@
       <c r="E474" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F474" s="4"/>
-      <c r="G474" s="28" t="s">
+      <c r="F474" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G474" s="19" t="s">
         <v>1492</v>
       </c>
-      <c r="H474" s="19"/>
+      <c r="H474" s="16"/>
     </row>
     <row r="475" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A475" s="4" t="s">
@@ -18536,11 +19057,13 @@
       <c r="E475" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F475" s="4"/>
-      <c r="G475" s="28" t="s">
-        <v>1856</v>
-      </c>
-      <c r="H475" s="19"/>
+      <c r="F475" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G475" s="19" t="s">
+        <v>1855</v>
+      </c>
+      <c r="H475" s="16"/>
     </row>
     <row r="476" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A476" s="4" t="s">
@@ -18558,11 +19081,13 @@
       <c r="E476" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F476" s="4"/>
-      <c r="G476" s="28" t="s">
+      <c r="F476" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G476" s="19" t="s">
         <v>1276</v>
       </c>
-      <c r="H476" s="19"/>
+      <c r="H476" s="16"/>
     </row>
     <row r="477" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A477" s="4" t="s">
@@ -18580,10 +19105,13 @@
       <c r="E477" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="G477" s="28" t="s">
+      <c r="F477" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G477" s="19" t="s">
         <v>1492</v>
       </c>
-      <c r="H477" s="19"/>
+      <c r="H477" s="16"/>
     </row>
     <row r="478" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A478" s="4" t="s">
@@ -18599,11 +19127,11 @@
         <v>179</v>
       </c>
       <c r="E478" s="23"/>
-      <c r="F478" s="4"/>
-      <c r="G478" s="28" t="s">
+      <c r="F478" s="29"/>
+      <c r="G478" s="19" t="s">
         <v>1426</v>
       </c>
-      <c r="H478" s="19"/>
+      <c r="H478" s="16"/>
     </row>
     <row r="479" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A479" s="4" t="s">
@@ -18621,11 +19149,13 @@
       <c r="E479" s="23" t="s">
         <v>859</v>
       </c>
-      <c r="F479" s="4"/>
-      <c r="G479" s="28" t="s">
+      <c r="F479" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G479" s="19" t="s">
         <v>1026</v>
       </c>
-      <c r="H479" s="19"/>
+      <c r="H479" s="16"/>
     </row>
     <row r="480" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A480" s="10" t="s">
@@ -18641,11 +19171,13 @@
         <v>399</v>
       </c>
       <c r="E480" s="23"/>
-      <c r="F480" s="4"/>
-      <c r="G480" s="28" t="s">
+      <c r="F480" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G480" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="H480" s="19"/>
+      <c r="H480" s="16"/>
     </row>
     <row r="481" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A481" s="4" t="s">
@@ -18661,11 +19193,13 @@
         <v>487</v>
       </c>
       <c r="E481" s="23"/>
-      <c r="F481" s="4"/>
-      <c r="G481" s="28" t="s">
-        <v>1801</v>
-      </c>
-      <c r="H481" s="19"/>
+      <c r="F481" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G481" s="19" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H481" s="16"/>
     </row>
     <row r="482" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A482" s="8" t="s">
@@ -18681,11 +19215,13 @@
         <v>461</v>
       </c>
       <c r="E482" s="23"/>
-      <c r="F482" s="4"/>
-      <c r="G482" s="28" t="s">
+      <c r="F482" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G482" s="19" t="s">
         <v>1734</v>
       </c>
-      <c r="H482" s="19"/>
+      <c r="H482" s="16"/>
     </row>
     <row r="483" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A483" s="4" t="s">
@@ -18703,11 +19239,13 @@
       <c r="E483" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F483" s="4"/>
-      <c r="G483" s="28" t="s">
+      <c r="F483" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G483" s="19" t="s">
         <v>1130</v>
       </c>
-      <c r="H483" s="19"/>
+      <c r="H483" s="16"/>
     </row>
     <row r="484" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A484" s="4" t="s">
@@ -18722,11 +19260,14 @@
       <c r="D484" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E484" s="24"/>
-      <c r="G484" s="28" t="s">
+      <c r="E484" s="17"/>
+      <c r="F484" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G484" s="19" t="s">
         <v>1735</v>
       </c>
-      <c r="H484" s="19"/>
+      <c r="H484" s="16"/>
     </row>
     <row r="485" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A485" s="4" t="s">
@@ -18741,11 +19282,14 @@
       <c r="D485" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E485" s="24"/>
-      <c r="G485" s="28" t="s">
+      <c r="E485" s="17"/>
+      <c r="F485" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G485" s="19" t="s">
         <v>1738</v>
       </c>
-      <c r="H485" s="19"/>
+      <c r="H485" s="16"/>
     </row>
     <row r="486" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A486" s="8" t="s">
@@ -18761,11 +19305,13 @@
         <v>442</v>
       </c>
       <c r="E486" s="23"/>
-      <c r="F486" s="4"/>
-      <c r="G486" s="28" t="s">
+      <c r="F486" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G486" s="19" t="s">
         <v>1737</v>
       </c>
-      <c r="H486" s="19"/>
+      <c r="H486" s="16"/>
     </row>
     <row r="487" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A487" s="10" t="s">
@@ -18781,11 +19327,13 @@
         <v>445</v>
       </c>
       <c r="E487" s="23"/>
-      <c r="F487" s="4"/>
-      <c r="G487" s="28" t="s">
+      <c r="F487" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G487" s="19" t="s">
         <v>1657</v>
       </c>
-      <c r="H487" s="19"/>
+      <c r="H487" s="16"/>
     </row>
     <row r="488" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A488" s="10" t="s">
@@ -18801,11 +19349,13 @@
         <v>448</v>
       </c>
       <c r="E488" s="23"/>
-      <c r="F488" s="4"/>
-      <c r="G488" s="28" t="s">
+      <c r="F488" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G488" s="19" t="s">
         <v>1739</v>
       </c>
-      <c r="H488" s="19"/>
+      <c r="H488" s="16"/>
     </row>
     <row r="489" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A489" s="10" t="s">
@@ -18821,11 +19371,13 @@
         <v>448</v>
       </c>
       <c r="E489" s="23"/>
-      <c r="F489" s="4"/>
-      <c r="G489" s="28" t="s">
+      <c r="F489" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G489" s="19" t="s">
         <v>1736</v>
       </c>
-      <c r="H489" s="19"/>
+      <c r="H489" s="16"/>
     </row>
     <row r="490" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A490" s="8" t="s">
@@ -18841,11 +19393,13 @@
         <v>301</v>
       </c>
       <c r="E490" s="23"/>
-      <c r="F490" s="4"/>
-      <c r="G490" s="28" t="s">
-        <v>1803</v>
-      </c>
-      <c r="H490" s="19"/>
+      <c r="F490" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G490" s="19" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H490" s="16"/>
     </row>
     <row r="491" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A491" s="10" t="s">
@@ -18861,11 +19415,13 @@
         <v>595</v>
       </c>
       <c r="E491" s="23"/>
-      <c r="F491" s="4"/>
-      <c r="G491" s="28" t="s">
-        <v>1805</v>
-      </c>
-      <c r="H491" s="19"/>
+      <c r="F491" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G491" s="19" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H491" s="16"/>
     </row>
     <row r="492" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A492" s="4" t="s">
@@ -18883,11 +19439,13 @@
       <c r="E492" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F492" s="4"/>
-      <c r="G492" s="28" t="s">
+      <c r="F492" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G492" s="19" t="s">
         <v>1133</v>
       </c>
-      <c r="H492" s="19"/>
+      <c r="H492" s="16"/>
     </row>
     <row r="493" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A493" s="4" t="s">
@@ -18903,11 +19461,13 @@
         <v>231</v>
       </c>
       <c r="E493" s="23"/>
-      <c r="F493" s="4"/>
-      <c r="G493" s="28" t="s">
+      <c r="F493" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G493" s="19" t="s">
         <v>1447</v>
       </c>
-      <c r="H493" s="19"/>
+      <c r="H493" s="16"/>
     </row>
     <row r="494" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A494" s="4" t="s">
@@ -18923,11 +19483,13 @@
         <v>234</v>
       </c>
       <c r="E494" s="23"/>
-      <c r="F494" s="4"/>
-      <c r="G494" s="28" t="s">
+      <c r="F494" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G494" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="H494" s="19"/>
+      <c r="H494" s="16"/>
     </row>
     <row r="495" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A495" s="4" t="s">
@@ -18943,11 +19505,13 @@
         <v>477</v>
       </c>
       <c r="E495" s="23"/>
-      <c r="F495" s="4"/>
-      <c r="G495" s="28" t="s">
+      <c r="F495" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G495" s="19" t="s">
         <v>1741</v>
       </c>
-      <c r="H495" s="19"/>
+      <c r="H495" s="16"/>
     </row>
     <row r="496" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A496" s="8" t="s">
@@ -18963,11 +19527,13 @@
         <v>1141</v>
       </c>
       <c r="E496" s="23"/>
-      <c r="F496" s="4"/>
-      <c r="G496" s="28" t="s">
+      <c r="F496" s="20" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G496" s="19" t="s">
         <v>1440</v>
       </c>
-      <c r="H496" s="19"/>
+      <c r="H496" s="16"/>
     </row>
     <row r="497" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A497" s="4" t="s">
@@ -18982,11 +19548,14 @@
       <c r="D497" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E497" s="24"/>
-      <c r="G497" s="28" t="s">
+      <c r="E497" s="17"/>
+      <c r="F497" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G497" s="19" t="s">
         <v>1603</v>
       </c>
-      <c r="H497" s="19"/>
+      <c r="H497" s="16"/>
     </row>
     <row r="498" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A498" s="7" t="s">
@@ -19001,11 +19570,14 @@
       <c r="D498" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E498" s="24"/>
-      <c r="G498" s="28" t="s">
+      <c r="E498" s="17"/>
+      <c r="F498" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G498" s="19" t="s">
         <v>1701</v>
       </c>
-      <c r="H498" s="19"/>
+      <c r="H498" s="16"/>
     </row>
     <row r="499" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A499" s="7" t="s">
@@ -19020,11 +19592,14 @@
       <c r="D499" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="E499" s="24"/>
-      <c r="G499" s="28" t="s">
-        <v>1806</v>
-      </c>
-      <c r="H499" s="19"/>
+      <c r="E499" s="17"/>
+      <c r="F499" s="20" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G499" s="19" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H499" s="16"/>
     </row>
     <row r="500" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A500" s="2" t="s">
@@ -19039,11 +19614,14 @@
       <c r="D500" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E500" s="24"/>
-      <c r="G500" s="28" t="s">
+      <c r="E500" s="17"/>
+      <c r="F500" s="20" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G500" s="19" t="s">
         <v>1742</v>
       </c>
-      <c r="H500" s="19"/>
+      <c r="H500" s="16"/>
     </row>
     <row r="501" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A501" s="4" t="s">
@@ -19061,11 +19639,13 @@
       <c r="E501" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F501" s="4"/>
-      <c r="G501" s="28" t="s">
+      <c r="F501" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G501" s="19" t="s">
         <v>1117</v>
       </c>
-      <c r="H501" s="19"/>
+      <c r="H501" s="16"/>
     </row>
     <row r="502" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A502" s="10" t="s">
@@ -19081,11 +19661,13 @@
         <v>307</v>
       </c>
       <c r="E502" s="23"/>
-      <c r="F502" s="4"/>
-      <c r="G502" s="28" t="s">
-        <v>1807</v>
-      </c>
-      <c r="H502" s="19"/>
+      <c r="F502" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G502" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="H502" s="16"/>
     </row>
     <row r="503" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A503" s="7" t="s">
@@ -19100,11 +19682,14 @@
       <c r="D503" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E503" s="24"/>
-      <c r="G503" s="28" t="s">
+      <c r="E503" s="17"/>
+      <c r="F503" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G503" s="19" t="s">
         <v>1469</v>
       </c>
-      <c r="H503" s="19"/>
+      <c r="H503" s="16"/>
     </row>
     <row r="504" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A504" s="2" t="s">
@@ -19119,11 +19704,14 @@
       <c r="D504" s="3" t="s">
         <v>1394</v>
       </c>
-      <c r="E504" s="24"/>
-      <c r="G504" s="28" t="s">
-        <v>1808</v>
-      </c>
-      <c r="H504" s="19"/>
+      <c r="E504" s="17"/>
+      <c r="F504" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G504" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="H504" s="16"/>
     </row>
     <row r="505" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A505" s="4" t="s">
@@ -19141,11 +19729,13 @@
       <c r="E505" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F505" s="4"/>
-      <c r="G505" s="28" t="s">
+      <c r="F505" s="20" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G505" s="19" t="s">
         <v>1743</v>
       </c>
-      <c r="H505" s="19"/>
+      <c r="H505" s="16"/>
     </row>
     <row r="506" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A506" s="4" t="s">
@@ -19160,11 +19750,14 @@
       <c r="D506" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="E506" s="24"/>
-      <c r="G506" s="28" t="s">
-        <v>1809</v>
-      </c>
-      <c r="H506" s="19"/>
+      <c r="E506" s="17"/>
+      <c r="F506" s="20" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G506" s="19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H506" s="16"/>
     </row>
     <row r="507" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A507" s="8" t="s">
@@ -19180,11 +19773,13 @@
         <v>465</v>
       </c>
       <c r="E507" s="23"/>
-      <c r="F507" s="4"/>
-      <c r="G507" s="28" t="s">
+      <c r="F507" s="20" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G507" s="19" t="s">
         <v>1795</v>
       </c>
-      <c r="H507" s="19"/>
+      <c r="H507" s="16"/>
     </row>
     <row r="508" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A508" s="4" t="s">
@@ -19202,11 +19797,13 @@
       <c r="E508" s="23" t="s">
         <v>588</v>
       </c>
-      <c r="F508" s="4"/>
-      <c r="G508" s="28" t="s">
+      <c r="F508" s="20" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G508" s="19" t="s">
         <v>1744</v>
       </c>
-      <c r="H508" s="19"/>
+      <c r="H508" s="16"/>
     </row>
     <row r="509" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A509" s="4" t="s">
@@ -19224,11 +19821,13 @@
       <c r="E509" s="23" t="s">
         <v>881</v>
       </c>
-      <c r="F509" s="4"/>
-      <c r="G509" s="28" t="s">
-        <v>1811</v>
-      </c>
-      <c r="H509" s="19"/>
+      <c r="F509" s="20" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G509" s="19" t="s">
+        <v>1810</v>
+      </c>
+      <c r="H509" s="16"/>
     </row>
     <row r="510" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A510" s="8" t="s">
@@ -19244,11 +19843,13 @@
         <v>417</v>
       </c>
       <c r="E510" s="23"/>
-      <c r="F510" s="4"/>
-      <c r="G510" s="28" t="s">
+      <c r="F510" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G510" s="19" t="s">
         <v>1745</v>
       </c>
-      <c r="H510" s="19"/>
+      <c r="H510" s="16"/>
     </row>
     <row r="511" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A511" s="7" t="s">
@@ -19263,11 +19864,14 @@
       <c r="D511" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E511" s="24"/>
-      <c r="G511" s="28" t="s">
-        <v>1812</v>
-      </c>
-      <c r="H511" s="19"/>
+      <c r="E511" s="17"/>
+      <c r="F511" s="20" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G511" s="19" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H511" s="16"/>
     </row>
     <row r="512" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A512" s="10" t="s">
@@ -19283,11 +19887,13 @@
         <v>1199</v>
       </c>
       <c r="E512" s="23"/>
-      <c r="F512" s="4"/>
-      <c r="G512" s="28" t="s">
+      <c r="F512" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G512" s="19" t="s">
         <v>1470</v>
       </c>
-      <c r="H512" s="19"/>
+      <c r="H512" s="16"/>
     </row>
     <row r="513" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A513" s="4" t="s">
@@ -19305,11 +19911,13 @@
       <c r="E513" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F513" s="4"/>
-      <c r="G513" s="28" t="s">
+      <c r="F513" s="20" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G513" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="H513" s="19"/>
+      <c r="H513" s="16"/>
     </row>
     <row r="514" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A514" s="4" t="s">
@@ -19327,11 +19935,13 @@
       <c r="E514" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F514" s="4"/>
-      <c r="G514" s="28" t="s">
+      <c r="F514" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G514" s="19" t="s">
         <v>1203</v>
       </c>
-      <c r="H514" s="19"/>
+      <c r="H514" s="16"/>
     </row>
     <row r="515" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A515" s="4" t="s">
@@ -19349,11 +19959,13 @@
       <c r="E515" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F515" s="4"/>
-      <c r="G515" s="28" t="s">
+      <c r="F515" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G515" s="19" t="s">
         <v>1206</v>
       </c>
-      <c r="H515" s="19"/>
+      <c r="H515" s="16"/>
     </row>
     <row r="516" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A516" s="4" t="s">
@@ -19371,11 +19983,13 @@
       <c r="E516" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F516" s="4"/>
-      <c r="G516" s="28" t="s">
+      <c r="F516" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G516" s="19" t="s">
         <v>1208</v>
       </c>
-      <c r="H516" s="19"/>
+      <c r="H516" s="16"/>
     </row>
     <row r="517" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A517" s="4" t="s">
@@ -19393,11 +20007,13 @@
       <c r="E517" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F517" s="4"/>
-      <c r="G517" s="28" t="s">
+      <c r="F517" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G517" s="19" t="s">
         <v>1210</v>
       </c>
-      <c r="H517" s="19"/>
+      <c r="H517" s="16"/>
     </row>
     <row r="518" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A518" s="4" t="s">
@@ -19415,11 +20031,13 @@
       <c r="E518" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F518" s="4"/>
-      <c r="G518" s="28" t="s">
+      <c r="F518" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G518" s="19" t="s">
         <v>1212</v>
       </c>
-      <c r="H518" s="19"/>
+      <c r="H518" s="16"/>
     </row>
     <row r="519" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A519" s="4" t="s">
@@ -19437,11 +20055,13 @@
       <c r="E519" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F519" s="4"/>
-      <c r="G519" s="28" t="s">
+      <c r="F519" s="20" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G519" s="19" t="s">
         <v>1214</v>
       </c>
-      <c r="H519" s="19"/>
+      <c r="H519" s="16"/>
     </row>
     <row r="520" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A520" s="4" t="s">
@@ -19459,11 +20079,13 @@
       <c r="E520" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F520" s="4"/>
-      <c r="G520" s="28" t="s">
+      <c r="F520" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G520" s="19" t="s">
         <v>1746</v>
       </c>
-      <c r="H520" s="19"/>
+      <c r="H520" s="16"/>
     </row>
     <row r="521" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A521" s="4" t="s">
@@ -19481,11 +20103,13 @@
       <c r="E521" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F521" s="4"/>
-      <c r="G521" s="28" t="s">
+      <c r="F521" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G521" s="19" t="s">
         <v>1218</v>
       </c>
-      <c r="H521" s="19"/>
+      <c r="H521" s="16"/>
     </row>
     <row r="522" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A522" s="4" t="s">
@@ -19503,11 +20127,13 @@
       <c r="E522" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F522" s="4"/>
-      <c r="G522" s="28" t="s">
+      <c r="F522" s="20" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G522" s="19" t="s">
         <v>1220</v>
       </c>
-      <c r="H522" s="19"/>
+      <c r="H522" s="16"/>
     </row>
     <row r="523" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A523" s="4" t="s">
@@ -19525,11 +20151,13 @@
       <c r="E523" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F523" s="4"/>
-      <c r="G523" s="28" t="s">
+      <c r="F523" s="20" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G523" s="19" t="s">
         <v>1222</v>
       </c>
-      <c r="H523" s="19"/>
+      <c r="H523" s="16"/>
     </row>
     <row r="524" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A524" s="4" t="s">
@@ -19547,11 +20175,13 @@
       <c r="E524" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F524" s="4"/>
-      <c r="G524" s="28" t="s">
+      <c r="F524" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G524" s="19" t="s">
         <v>1224</v>
       </c>
-      <c r="H524" s="19"/>
+      <c r="H524" s="16"/>
     </row>
     <row r="525" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A525" s="8" t="s">
@@ -19567,11 +20197,13 @@
         <v>1205</v>
       </c>
       <c r="E525" s="23"/>
-      <c r="F525" s="4"/>
-      <c r="G525" s="28" t="s">
+      <c r="F525" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G525" s="19" t="s">
         <v>1747</v>
       </c>
-      <c r="H525" s="19"/>
+      <c r="H525" s="16"/>
     </row>
     <row r="526" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A526" s="8" t="s">
@@ -19587,11 +20219,13 @@
         <v>530</v>
       </c>
       <c r="E526" s="23"/>
-      <c r="F526" s="4"/>
-      <c r="G526" s="28" t="s">
+      <c r="F526" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G526" s="19" t="s">
         <v>1748</v>
       </c>
-      <c r="H526" s="19"/>
+      <c r="H526" s="16"/>
     </row>
     <row r="527" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A527" s="2" t="s">
@@ -19606,11 +20240,14 @@
       <c r="D527" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E527" s="24"/>
-      <c r="G527" s="28" t="s">
+      <c r="E527" s="17"/>
+      <c r="F527" s="20" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G527" s="19" t="s">
         <v>1750</v>
       </c>
-      <c r="H527" s="19"/>
+      <c r="H527" s="16"/>
     </row>
     <row r="528" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A528" s="2" t="s">
@@ -19625,11 +20262,14 @@
       <c r="D528" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E528" s="24"/>
-      <c r="G528" s="28" t="s">
+      <c r="E528" s="17"/>
+      <c r="F528" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G528" s="19" t="s">
         <v>1749</v>
       </c>
-      <c r="H528" s="19"/>
+      <c r="H528" s="16"/>
     </row>
     <row r="529" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A529" s="2" t="s">
@@ -19644,11 +20284,14 @@
       <c r="D529" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E529" s="24"/>
-      <c r="G529" s="28" t="s">
+      <c r="E529" s="17"/>
+      <c r="F529" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G529" s="19" t="s">
         <v>1751</v>
       </c>
-      <c r="H529" s="19"/>
+      <c r="H529" s="16"/>
     </row>
     <row r="530" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A530" s="2" t="s">
@@ -19663,11 +20306,14 @@
       <c r="D530" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="E530" s="24"/>
-      <c r="G530" s="28" t="s">
+      <c r="E530" s="17"/>
+      <c r="F530" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G530" s="19" t="s">
         <v>1752</v>
       </c>
-      <c r="H530" s="19"/>
+      <c r="H530" s="16"/>
     </row>
     <row r="531" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A531" s="8" t="s">
@@ -19683,11 +20329,13 @@
         <v>387</v>
       </c>
       <c r="E531" s="23"/>
-      <c r="F531" s="4"/>
-      <c r="G531" s="28" t="s">
+      <c r="F531" s="20" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G531" s="19" t="s">
         <v>1471</v>
       </c>
-      <c r="H531" s="19"/>
+      <c r="H531" s="16"/>
     </row>
     <row r="532" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A532" s="2" t="s">
@@ -19702,11 +20350,14 @@
       <c r="D532" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="E532" s="24"/>
-      <c r="G532" s="28" t="s">
+      <c r="E532" s="17"/>
+      <c r="F532" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G532" s="19" t="s">
         <v>1609</v>
       </c>
-      <c r="H532" s="19"/>
+      <c r="H532" s="16"/>
     </row>
     <row r="533" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A533" s="4" t="s">
@@ -19724,11 +20375,13 @@
       <c r="E533" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F533" s="4"/>
-      <c r="G533" s="28" t="s">
+      <c r="F533" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G533" s="19" t="s">
         <v>1002</v>
       </c>
-      <c r="H533" s="19"/>
+      <c r="H533" s="16"/>
     </row>
     <row r="534" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A534" s="4" t="s">
@@ -19746,11 +20399,13 @@
       <c r="E534" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F534" s="4"/>
-      <c r="G534" s="28" t="s">
+      <c r="F534" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G534" s="19" t="s">
         <v>1066</v>
       </c>
-      <c r="H534" s="19"/>
+      <c r="H534" s="16"/>
     </row>
     <row r="535" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A535" s="7" t="s">
@@ -19765,11 +20420,14 @@
       <c r="D535" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E535" s="24"/>
-      <c r="G535" s="28" t="s">
-        <v>1815</v>
-      </c>
-      <c r="H535" s="19"/>
+      <c r="E535" s="17"/>
+      <c r="F535" s="20" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G535" s="19" t="s">
+        <v>1814</v>
+      </c>
+      <c r="H535" s="16"/>
     </row>
     <row r="536" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A536" s="10" t="s">
@@ -19785,11 +20443,13 @@
         <v>317</v>
       </c>
       <c r="E536" s="23"/>
-      <c r="F536" s="4"/>
-      <c r="G536" s="28" t="s">
-        <v>1818</v>
-      </c>
-      <c r="H536" s="19"/>
+      <c r="F536" s="20" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G536" s="19" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H536" s="16"/>
     </row>
     <row r="537" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A537" s="4" t="s">
@@ -19805,11 +20465,13 @@
         <v>536</v>
       </c>
       <c r="E537" s="23"/>
-      <c r="F537" s="4"/>
-      <c r="G537" s="28" t="s">
+      <c r="F537" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G537" s="19" t="s">
         <v>1756</v>
       </c>
-      <c r="H537" s="19"/>
+      <c r="H537" s="16"/>
     </row>
     <row r="538" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A538" s="4" t="s">
@@ -19827,11 +20489,13 @@
       <c r="E538" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F538" s="4"/>
-      <c r="G538" s="28" t="s">
+      <c r="F538" s="20" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G538" s="19" t="s">
         <v>1017</v>
       </c>
-      <c r="H538" s="19"/>
+      <c r="H538" s="16"/>
     </row>
     <row r="539" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A539" s="4" t="s">
@@ -19849,11 +20513,13 @@
       <c r="E539" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F539" s="4"/>
-      <c r="G539" s="28" t="s">
+      <c r="F539" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G539" s="19" t="s">
         <v>1060</v>
       </c>
-      <c r="H539" s="19"/>
+      <c r="H539" s="16"/>
     </row>
     <row r="540" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A540" s="7" t="s">
@@ -19868,11 +20534,14 @@
       <c r="D540" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="E540" s="24"/>
-      <c r="G540" s="28" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H540" s="19"/>
+      <c r="E540" s="17"/>
+      <c r="F540" s="20" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G540" s="19" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H540" s="16"/>
     </row>
     <row r="541" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A541" s="4" t="s">
@@ -19890,11 +20559,13 @@
       <c r="E541" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F541" s="4"/>
-      <c r="G541" s="28" t="s">
+      <c r="F541" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G541" s="19" t="s">
         <v>1057</v>
       </c>
-      <c r="H541" s="19"/>
+      <c r="H541" s="16"/>
     </row>
     <row r="542" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A542" s="10" t="s">
@@ -19910,11 +20581,13 @@
         <v>611</v>
       </c>
       <c r="E542" s="23"/>
-      <c r="F542" s="4"/>
-      <c r="G542" s="28" t="s">
-        <v>1829</v>
-      </c>
-      <c r="H542" s="19"/>
+      <c r="F542" s="20" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G542" s="19" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H542" s="16"/>
     </row>
     <row r="543" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A543" s="4" t="s">
@@ -19930,11 +20603,13 @@
         <v>614</v>
       </c>
       <c r="E543" s="23"/>
-      <c r="F543" s="4"/>
-      <c r="G543" s="28" t="s">
-        <v>1826</v>
-      </c>
-      <c r="H543" s="19"/>
+      <c r="F543" s="20" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G543" s="19" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H543" s="16"/>
     </row>
     <row r="544" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A544" s="4" t="s">
@@ -19950,11 +20625,13 @@
         <v>614</v>
       </c>
       <c r="E544" s="23"/>
-      <c r="F544" s="4"/>
-      <c r="G544" s="28" t="s">
+      <c r="F544" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G544" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="H544" s="19"/>
+      <c r="H544" s="16"/>
     </row>
     <row r="545" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A545" s="4" t="s">
@@ -19970,11 +20647,13 @@
         <v>614</v>
       </c>
       <c r="E545" s="23"/>
-      <c r="F545" s="4"/>
-      <c r="G545" s="28" t="s">
-        <v>1828</v>
-      </c>
-      <c r="H545" s="19"/>
+      <c r="F545" s="20" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G545" s="19" t="s">
+        <v>1827</v>
+      </c>
+      <c r="H545" s="16"/>
     </row>
     <row r="546" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A546" s="8" t="s">
@@ -19990,11 +20669,13 @@
         <v>621</v>
       </c>
       <c r="E546" s="23"/>
-      <c r="F546" s="4"/>
-      <c r="G546" s="28" t="s">
-        <v>1827</v>
-      </c>
-      <c r="H546" s="19"/>
+      <c r="F546" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G546" s="19" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H546" s="16"/>
     </row>
     <row r="547" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A547" s="4" t="s">
@@ -20010,11 +20691,13 @@
         <v>614</v>
       </c>
       <c r="E547" s="23"/>
-      <c r="F547" s="4"/>
+      <c r="F547" s="20" t="s">
+        <v>1831</v>
+      </c>
       <c r="G547" s="28" t="s">
-        <v>1830</v>
-      </c>
-      <c r="H547" s="19"/>
+        <v>1829</v>
+      </c>
+      <c r="H547" s="16"/>
     </row>
     <row r="548" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A548" s="4" t="s">
@@ -20030,13 +20713,15 @@
         <v>614</v>
       </c>
       <c r="E548" s="23"/>
-      <c r="F548" s="4"/>
-      <c r="G548" s="28" t="s">
+      <c r="F548" s="20" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G548" s="19" t="s">
         <v>1775</v>
       </c>
-      <c r="H548" s="19"/>
-    </row>
-    <row r="549" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="H548" s="16"/>
+    </row>
+    <row r="549" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A549" s="4" t="s">
         <v>137</v>
       </c>
@@ -20049,93 +20734,108 @@
       <c r="D549" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E549" s="24"/>
-      <c r="G549" s="28" t="s">
+      <c r="E549" s="17"/>
+      <c r="F549" s="20" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G549" s="19" t="s">
         <v>1757</v>
       </c>
-      <c r="H549" s="19"/>
-    </row>
-    <row r="550" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="H549" s="16"/>
+    </row>
+    <row r="550" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A550" s="2"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
-      <c r="E550" s="24"/>
-      <c r="G550" s="28"/>
-      <c r="H550" s="19"/>
-    </row>
-    <row r="551" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E550" s="17"/>
+      <c r="F550" s="24"/>
+      <c r="G550" s="25"/>
+      <c r="H550" s="22"/>
+    </row>
+    <row r="551" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A551" s="2"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
-      <c r="E551" s="24"/>
-      <c r="G551" s="28"/>
-      <c r="H551" s="19"/>
-    </row>
-    <row r="552" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E551" s="17"/>
+      <c r="F551" s="24"/>
+      <c r="G551" s="25"/>
+      <c r="H551" s="22"/>
+    </row>
+    <row r="552" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A552" s="2"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
-      <c r="E552" s="24"/>
-      <c r="G552" s="28"/>
-    </row>
-    <row r="553" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E552" s="17"/>
+      <c r="F552" s="24"/>
+      <c r="G552" s="25"/>
+      <c r="H552" s="22"/>
+    </row>
+    <row r="553" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A553" s="2"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
-      <c r="E553" s="24"/>
-      <c r="G553" s="28"/>
-    </row>
-    <row r="554" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E553" s="17"/>
+      <c r="F553" s="24"/>
+      <c r="G553" s="25"/>
+      <c r="H553" s="22"/>
+    </row>
+    <row r="554" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A554" s="2"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
-      <c r="E554" s="24"/>
-      <c r="G554" s="28"/>
-    </row>
-    <row r="555" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E554" s="17"/>
+      <c r="F554" s="24"/>
+      <c r="G554" s="25"/>
+      <c r="H554" s="22"/>
+    </row>
+    <row r="555" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A555" s="2"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
-      <c r="E555" s="24"/>
-      <c r="G555" s="28"/>
-    </row>
-    <row r="556" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E555" s="17"/>
+      <c r="F555" s="24"/>
+      <c r="G555" s="25"/>
+      <c r="H555" s="22"/>
+    </row>
+    <row r="556" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A556" s="2"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
-      <c r="E556" s="24"/>
-      <c r="G556" s="28"/>
+      <c r="E556" s="17"/>
+      <c r="F556" s="24"/>
+      <c r="G556" s="25"/>
+      <c r="H556" s="22"/>
     </row>
     <row r="557" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A557" s="2"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
-      <c r="E557" s="24"/>
-      <c r="G557" s="28"/>
+      <c r="E557" s="17"/>
+      <c r="H557" s="19"/>
     </row>
     <row r="558" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A558" s="2"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
-      <c r="E558" s="24"/>
-      <c r="G558" s="28"/>
+      <c r="E558" s="17"/>
+      <c r="H558" s="19"/>
     </row>
     <row r="559" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A559" s="2"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
-      <c r="E559" s="24"/>
-      <c r="G559" s="28"/>
+      <c r="E559" s="17"/>
+      <c r="G559" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F549">
